--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1032949.615931704</v>
+        <v>1031247.993155837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1289937.060837778</v>
+        <v>1289937.060837777</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="C2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C2" t="n">
-        <v>185.0333587736945</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>73.61300793312508</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>174.0488373168292</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>204.9103882272899</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>52.70793525228553</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>217.7881423348689</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>224.955318164091</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>40.23748444544588</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>241.0142888776591</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.5043932734625</v>
+        <v>106.0311077711178</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>359.4979381173228</v>
+        <v>359.4979381173229</v>
       </c>
       <c r="C11" t="n">
         <v>342.0369882248498</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>358.694466526104</v>
+        <v>147.2556302477397</v>
       </c>
       <c r="F11" t="n">
         <v>383.6401421955537</v>
       </c>
       <c r="G11" t="n">
-        <v>389.7126159571724</v>
+        <v>389.7126159571725</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>292.1287633562131</v>
       </c>
       <c r="I11" t="n">
-        <v>96.47899612414197</v>
+        <v>96.47899612414206</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.1374230960847</v>
+        <v>132.1374230960848</v>
       </c>
       <c r="T11" t="n">
-        <v>189.5543566712979</v>
+        <v>189.554356671298</v>
       </c>
       <c r="U11" t="n">
-        <v>227.9214119207343</v>
+        <v>227.9214119207344</v>
       </c>
       <c r="V11" t="n">
-        <v>304.5163549239771</v>
+        <v>304.5163549239772</v>
       </c>
       <c r="W11" t="n">
-        <v>326.0050651712552</v>
+        <v>326.0050651712553</v>
       </c>
       <c r="X11" t="n">
-        <v>80.68992707784869</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>363.0020351098958</v>
+        <v>363.0020351098959</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.5960766357795</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>144.0109175524701</v>
       </c>
       <c r="D13" t="n">
-        <v>125.3795694720546</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>123.1980591004114</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>122.1851444767735</v>
+        <v>39.30128870856318</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>200.1975955000724</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>263.0255246565197</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>228.9017397776703</v>
       </c>
       <c r="W13" t="n">
-        <v>263.2870947904332</v>
+        <v>263.2870947904333</v>
       </c>
       <c r="X13" t="n">
-        <v>150.1567773530118</v>
+        <v>202.4737518428795</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>359.4979381173227</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>342.0369882248497</v>
       </c>
       <c r="D14" t="n">
-        <v>331.4471380745252</v>
+        <v>331.4471380745251</v>
       </c>
       <c r="E14" t="n">
-        <v>358.6944665261041</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>383.6401421955537</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>389.7126159571725</v>
+        <v>339.1450493177722</v>
       </c>
       <c r="H14" t="n">
-        <v>292.1287633562131</v>
+        <v>292.128763356213</v>
       </c>
       <c r="I14" t="n">
-        <v>96.47899612414204</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.1374230960848</v>
+        <v>132.1374230960847</v>
       </c>
       <c r="T14" t="n">
         <v>189.5543566712979</v>
       </c>
       <c r="U14" t="n">
-        <v>227.9214119207344</v>
+        <v>227.9214119207343</v>
       </c>
       <c r="V14" t="n">
-        <v>116.6701097809483</v>
+        <v>304.5163549239771</v>
       </c>
       <c r="W14" t="n">
-        <v>326.0050651712553</v>
+        <v>326.0050651712552</v>
       </c>
       <c r="X14" t="n">
-        <v>346.4951971323113</v>
+        <v>346.4951971323112</v>
       </c>
       <c r="Y14" t="n">
-        <v>363.0020351098959</v>
+        <v>363.0020351098958</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>144.0109175524701</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>123.9549909407084</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.39791470401621</v>
+        <v>122.1851444767734</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>182.3771258474263</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>200.1975955000723</v>
       </c>
       <c r="U16" t="n">
-        <v>263.0255246565197</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>228.9017397776703</v>
+        <v>228.9017397776702</v>
       </c>
       <c r="W16" t="n">
-        <v>263.2870947904333</v>
+        <v>263.2870947904332</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>202.4737518428794</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.2058600183095</v>
+        <v>300.2058600183094</v>
       </c>
       <c r="C17" t="n">
         <v>282.7449101258364</v>
@@ -1850,19 +1850,19 @@
         <v>272.1550599755118</v>
       </c>
       <c r="E17" t="n">
-        <v>299.4023884270907</v>
+        <v>299.4023884270906</v>
       </c>
       <c r="F17" t="n">
         <v>324.3480640965403</v>
       </c>
       <c r="G17" t="n">
-        <v>330.4205378581591</v>
+        <v>330.420537858159</v>
       </c>
       <c r="H17" t="n">
         <v>232.8366852571997</v>
       </c>
       <c r="I17" t="n">
-        <v>37.18691802512863</v>
+        <v>37.18691802512861</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.84534499707139</v>
+        <v>72.84534499707136</v>
       </c>
       <c r="T17" t="n">
-        <v>130.2622785722846</v>
+        <v>130.2622785722845</v>
       </c>
       <c r="U17" t="n">
-        <v>168.629333821721</v>
+        <v>168.6293338217209</v>
       </c>
       <c r="V17" t="n">
-        <v>245.2242768249638</v>
+        <v>245.2242768249637</v>
       </c>
       <c r="W17" t="n">
-        <v>266.7129870722419</v>
+        <v>266.7129870722418</v>
       </c>
       <c r="X17" t="n">
         <v>287.2031190332979</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.7099570108825</v>
+        <v>303.7099570108824</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.30399853676617</v>
+        <v>97.30399853676614</v>
       </c>
       <c r="C19" t="n">
-        <v>84.71883945345671</v>
+        <v>84.71883945345668</v>
       </c>
       <c r="D19" t="n">
-        <v>66.08749137304123</v>
+        <v>66.0874913730412</v>
       </c>
       <c r="E19" t="n">
-        <v>63.90598100139805</v>
+        <v>63.90598100139802</v>
       </c>
       <c r="F19" t="n">
-        <v>62.89306637776012</v>
+        <v>62.89306637776009</v>
       </c>
       <c r="G19" t="n">
-        <v>84.40697656004157</v>
+        <v>84.40697656004154</v>
       </c>
       <c r="H19" t="n">
-        <v>70.31020279068069</v>
+        <v>70.31020279068068</v>
       </c>
       <c r="I19" t="n">
-        <v>41.16505714628731</v>
+        <v>41.16505714628728</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.28285860513439</v>
+        <v>47.28285860513436</v>
       </c>
       <c r="S19" t="n">
-        <v>123.0850477484129</v>
+        <v>123.0850477484128</v>
       </c>
       <c r="T19" t="n">
         <v>140.905517401059</v>
@@ -2059,16 +2059,16 @@
         <v>203.7334465575063</v>
       </c>
       <c r="V19" t="n">
-        <v>169.6096616786569</v>
+        <v>36.86579759352698</v>
       </c>
       <c r="W19" t="n">
-        <v>203.9950166914199</v>
+        <v>203.9950166914198</v>
       </c>
       <c r="X19" t="n">
         <v>143.181673743866</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.312807621792972</v>
+        <v>136.0566717069236</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.2058600183094</v>
+        <v>300.2058600183095</v>
       </c>
       <c r="C20" t="n">
         <v>282.7449101258364</v>
@@ -2087,19 +2087,19 @@
         <v>272.1550599755118</v>
       </c>
       <c r="E20" t="n">
-        <v>299.4023884270906</v>
+        <v>299.4023884270907</v>
       </c>
       <c r="F20" t="n">
         <v>324.3480640965403</v>
       </c>
       <c r="G20" t="n">
-        <v>330.420537858159</v>
+        <v>330.4205378581591</v>
       </c>
       <c r="H20" t="n">
         <v>232.8366852571997</v>
       </c>
       <c r="I20" t="n">
-        <v>37.18691802512859</v>
+        <v>37.18691802512863</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.84534499707135</v>
+        <v>72.84534499707139</v>
       </c>
       <c r="T20" t="n">
-        <v>130.2622785722845</v>
+        <v>130.2622785722846</v>
       </c>
       <c r="U20" t="n">
-        <v>168.6293338217209</v>
+        <v>168.629333821721</v>
       </c>
       <c r="V20" t="n">
-        <v>245.2242768249637</v>
+        <v>245.2242768249638</v>
       </c>
       <c r="W20" t="n">
-        <v>266.7129870722418</v>
+        <v>266.7129870722419</v>
       </c>
       <c r="X20" t="n">
         <v>287.2031190332979</v>
       </c>
       <c r="Y20" t="n">
-        <v>303.7099570108824</v>
+        <v>303.7099570108825</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.30399853676613</v>
+        <v>49.27897390509167</v>
       </c>
       <c r="C22" t="n">
-        <v>84.71883945345667</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>66.08749137304119</v>
+        <v>66.08749137304123</v>
       </c>
       <c r="E22" t="n">
-        <v>63.905981001398</v>
+        <v>63.90598100139805</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.89306637776012</v>
       </c>
       <c r="G22" t="n">
-        <v>14.55617885267169</v>
+        <v>84.40697656004157</v>
       </c>
       <c r="H22" t="n">
-        <v>70.31020279068065</v>
+        <v>70.31020279068069</v>
       </c>
       <c r="I22" t="n">
-        <v>41.16505714628727</v>
+        <v>41.16505714628731</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.28285860513436</v>
+        <v>47.28285860513439</v>
       </c>
       <c r="S22" t="n">
-        <v>123.0850477484128</v>
+        <v>123.0850477484129</v>
       </c>
       <c r="T22" t="n">
         <v>140.905517401059</v>
@@ -2296,16 +2296,16 @@
         <v>203.7334465575063</v>
       </c>
       <c r="V22" t="n">
-        <v>169.6096616786568</v>
+        <v>169.6096616786569</v>
       </c>
       <c r="W22" t="n">
-        <v>203.9950166914198</v>
+        <v>203.9950166914199</v>
       </c>
       <c r="X22" t="n">
         <v>143.181673743866</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.0566717069236</v>
+        <v>136.0566717069237</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2479,19 @@
         <v>84.71883945345671</v>
       </c>
       <c r="D25" t="n">
-        <v>66.08749137304123</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>63.90598100139805</v>
       </c>
       <c r="F25" t="n">
-        <v>47.74226368844461</v>
+        <v>62.89306637776012</v>
       </c>
       <c r="G25" t="n">
         <v>84.40697656004157</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>70.31020279068071</v>
       </c>
       <c r="I25" t="n">
         <v>41.16505714628731</v>
@@ -2527,7 +2527,7 @@
         <v>123.0850477484129</v>
       </c>
       <c r="T25" t="n">
-        <v>140.905517401059</v>
+        <v>121.5320032941039</v>
       </c>
       <c r="U25" t="n">
         <v>203.7334465575063</v>
@@ -2558,22 +2558,22 @@
         <v>282.7449101258364</v>
       </c>
       <c r="D26" t="n">
-        <v>272.1550599755119</v>
+        <v>272.1550599755118</v>
       </c>
       <c r="E26" t="n">
         <v>299.4023884270907</v>
       </c>
       <c r="F26" t="n">
-        <v>324.3480640965404</v>
+        <v>324.3480640965403</v>
       </c>
       <c r="G26" t="n">
-        <v>330.4205378581592</v>
+        <v>330.4205378581591</v>
       </c>
       <c r="H26" t="n">
-        <v>232.8366852571998</v>
+        <v>232.8366852571997</v>
       </c>
       <c r="I26" t="n">
-        <v>37.18691802512868</v>
+        <v>37.18691802512863</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>72.84534499707144</v>
+        <v>72.84534499707139</v>
       </c>
       <c r="T26" t="n">
         <v>130.2622785722846</v>
@@ -2615,10 +2615,10 @@
         <v>245.2242768249638</v>
       </c>
       <c r="W26" t="n">
-        <v>266.712987072242</v>
+        <v>266.7129870722419</v>
       </c>
       <c r="X26" t="n">
-        <v>287.203119033298</v>
+        <v>287.2031190332979</v>
       </c>
       <c r="Y26" t="n">
         <v>303.7099570108825</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.30399853676622</v>
+        <v>97.30399853676617</v>
       </c>
       <c r="C28" t="n">
-        <v>84.71883945345675</v>
+        <v>84.71883945345671</v>
       </c>
       <c r="D28" t="n">
-        <v>66.08749137304127</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>63.90598100139809</v>
+        <v>63.90598100139805</v>
       </c>
       <c r="F28" t="n">
-        <v>62.89306637776016</v>
+        <v>62.89306637776012</v>
       </c>
       <c r="G28" t="n">
-        <v>84.40697656004161</v>
+        <v>17.75060384795213</v>
       </c>
       <c r="H28" t="n">
-        <v>70.31020279068075</v>
+        <v>70.31020279068069</v>
       </c>
       <c r="I28" t="n">
-        <v>41.16505714628735</v>
+        <v>41.16505714628731</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.28285860513444</v>
+        <v>47.28285860513439</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>123.0850477484129</v>
       </c>
       <c r="T28" t="n">
-        <v>140.9055174010591</v>
+        <v>140.905517401059</v>
       </c>
       <c r="U28" t="n">
-        <v>203.7334465575064</v>
+        <v>203.7334465575063</v>
       </c>
       <c r="V28" t="n">
         <v>169.6096616786569</v>
@@ -2776,10 +2776,10 @@
         <v>203.9950166914199</v>
       </c>
       <c r="X28" t="n">
-        <v>143.1816737438661</v>
+        <v>143.181673743866</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.397855370205</v>
+        <v>136.0566717069237</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>300.2058600183095</v>
       </c>
       <c r="C29" t="n">
-        <v>282.7449101258364</v>
+        <v>282.7449101258365</v>
       </c>
       <c r="D29" t="n">
-        <v>272.1550599755118</v>
+        <v>272.1550599755119</v>
       </c>
       <c r="E29" t="n">
         <v>299.4023884270907</v>
       </c>
       <c r="F29" t="n">
-        <v>324.3480640965403</v>
+        <v>324.3480640965404</v>
       </c>
       <c r="G29" t="n">
-        <v>330.4205378581591</v>
+        <v>330.4205378581592</v>
       </c>
       <c r="H29" t="n">
-        <v>232.8366852571997</v>
+        <v>232.8366852571998</v>
       </c>
       <c r="I29" t="n">
-        <v>37.18691802512863</v>
+        <v>37.18691802512869</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S29" t="n">
-        <v>72.84534499707139</v>
+        <v>72.84534499707145</v>
       </c>
       <c r="T29" t="n">
         <v>130.2622785722846</v>
@@ -2849,13 +2849,13 @@
         <v>168.629333821721</v>
       </c>
       <c r="V29" t="n">
-        <v>245.2242768249638</v>
+        <v>245.2242768249639</v>
       </c>
       <c r="W29" t="n">
-        <v>266.7129870722419</v>
+        <v>266.712987072242</v>
       </c>
       <c r="X29" t="n">
-        <v>287.2031190332979</v>
+        <v>287.203119033298</v>
       </c>
       <c r="Y29" t="n">
         <v>303.7099570108825</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.30399853676617</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>84.71883945345671</v>
+        <v>84.71883945345677</v>
       </c>
       <c r="D31" t="n">
-        <v>66.08749137304123</v>
+        <v>66.08749137304129</v>
       </c>
       <c r="E31" t="n">
-        <v>63.90598100139805</v>
+        <v>63.9059810013981</v>
       </c>
       <c r="F31" t="n">
-        <v>62.89306637776012</v>
+        <v>62.89306637776018</v>
       </c>
       <c r="G31" t="n">
-        <v>84.40697656004157</v>
+        <v>84.40697656004163</v>
       </c>
       <c r="H31" t="n">
-        <v>70.31020279068069</v>
+        <v>70.31020279068076</v>
       </c>
       <c r="I31" t="n">
-        <v>41.16505714628731</v>
+        <v>41.16505714628737</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.28285860513439</v>
+        <v>47.28285860513446</v>
       </c>
       <c r="S31" t="n">
-        <v>123.0850477484129</v>
+        <v>123.085047748413</v>
       </c>
       <c r="T31" t="n">
-        <v>8.161653315929129</v>
+        <v>140.9055174010591</v>
       </c>
       <c r="U31" t="n">
-        <v>203.7334465575063</v>
+        <v>203.7334465575064</v>
       </c>
       <c r="V31" t="n">
-        <v>169.6096616786569</v>
+        <v>134.1697961302913</v>
       </c>
       <c r="W31" t="n">
         <v>203.9950166914199</v>
       </c>
       <c r="X31" t="n">
-        <v>143.181673743866</v>
+        <v>143.1816737438661</v>
       </c>
       <c r="Y31" t="n">
         <v>136.0566717069237</v>
@@ -3187,7 +3187,7 @@
         <v>97.30399853676617</v>
       </c>
       <c r="C34" t="n">
-        <v>14.86804174608582</v>
+        <v>84.71883945345671</v>
       </c>
       <c r="D34" t="n">
         <v>66.08749137304123</v>
@@ -3196,7 +3196,7 @@
         <v>63.90598100139805</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.89306637776012</v>
       </c>
       <c r="G34" t="n">
         <v>84.40697656004157</v>
@@ -3238,7 +3238,7 @@
         <v>123.0850477484129</v>
       </c>
       <c r="T34" t="n">
-        <v>140.905517401059</v>
+        <v>8.16165331592863</v>
       </c>
       <c r="U34" t="n">
         <v>203.7334465575063</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.6379317572977</v>
+        <v>294.6379317572976</v>
       </c>
       <c r="C35" t="n">
-        <v>277.1769818648247</v>
+        <v>277.1769818648246</v>
       </c>
       <c r="D35" t="n">
-        <v>266.5871317145001</v>
+        <v>266.5871317145</v>
       </c>
       <c r="E35" t="n">
-        <v>293.8344601660789</v>
+        <v>293.8344601660788</v>
       </c>
       <c r="F35" t="n">
         <v>318.7801358355285</v>
@@ -3281,10 +3281,10 @@
         <v>324.8526095971473</v>
       </c>
       <c r="H35" t="n">
-        <v>227.268756996188</v>
+        <v>227.2687569961879</v>
       </c>
       <c r="I35" t="n">
-        <v>31.61898976411688</v>
+        <v>31.6189897641168</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.985970757113819</v>
       </c>
       <c r="S35" t="n">
-        <v>150.7963406512365</v>
+        <v>67.27741673605956</v>
       </c>
       <c r="T35" t="n">
-        <v>124.6943503112728</v>
+        <v>206.2273034693367</v>
       </c>
       <c r="U35" t="n">
-        <v>163.0614055607092</v>
+        <v>163.0614055607091</v>
       </c>
       <c r="V35" t="n">
         <v>239.656348563952</v>
@@ -3332,7 +3332,7 @@
         <v>281.6351907722861</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.1420287498707</v>
+        <v>298.1420287498706</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>100.0701892325241</v>
       </c>
       <c r="I36" t="n">
-        <v>46.02821696531916</v>
+        <v>46.02821696531917</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.95104494454455</v>
+        <v>21.95104494454456</v>
       </c>
       <c r="S36" t="n">
         <v>148.2863250812116</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.73607027575443</v>
+        <v>91.73607027575434</v>
       </c>
       <c r="C37" t="n">
-        <v>79.15091119244497</v>
+        <v>79.15091119244488</v>
       </c>
       <c r="D37" t="n">
-        <v>60.51956311202949</v>
+        <v>60.5195631120294</v>
       </c>
       <c r="E37" t="n">
-        <v>58.3380527403863</v>
+        <v>58.33805274038622</v>
       </c>
       <c r="F37" t="n">
-        <v>57.32513811674838</v>
+        <v>57.32513811674829</v>
       </c>
       <c r="G37" t="n">
-        <v>78.83904829902983</v>
+        <v>78.83904829902974</v>
       </c>
       <c r="H37" t="n">
-        <v>64.74227452966761</v>
+        <v>64.74227452966886</v>
       </c>
       <c r="I37" t="n">
-        <v>35.59712888527556</v>
+        <v>35.59712888527548</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71493034412265</v>
+        <v>41.71493034412256</v>
       </c>
       <c r="S37" t="n">
         <v>117.5171194874011</v>
       </c>
       <c r="T37" t="n">
-        <v>135.3375891400473</v>
+        <v>135.3375891400472</v>
       </c>
       <c r="U37" t="n">
-        <v>198.1655182964946</v>
+        <v>198.1655182964945</v>
       </c>
       <c r="V37" t="n">
-        <v>164.0417334176451</v>
+        <v>164.041733417645</v>
       </c>
       <c r="W37" t="n">
-        <v>198.4270884304081</v>
+        <v>198.427088430408</v>
       </c>
       <c r="X37" t="n">
-        <v>137.6137454828543</v>
+        <v>137.6137454828542</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.4887434459119</v>
+        <v>130.4887434459118</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>294.6379317572977</v>
+        <v>294.6379317572976</v>
       </c>
       <c r="C38" t="n">
         <v>277.1769818648246</v>
       </c>
       <c r="D38" t="n">
-        <v>266.5871317145001</v>
+        <v>266.5871317145</v>
       </c>
       <c r="E38" t="n">
-        <v>293.8344601660789</v>
+        <v>293.8344601660788</v>
       </c>
       <c r="F38" t="n">
         <v>318.7801358355285</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.985970757113819</v>
       </c>
       <c r="S38" t="n">
-        <v>150.796340651237</v>
+        <v>67.27741673605956</v>
       </c>
       <c r="T38" t="n">
         <v>124.6943503112727</v>
       </c>
       <c r="U38" t="n">
-        <v>163.0614055607092</v>
+        <v>163.0614055607091</v>
       </c>
       <c r="V38" t="n">
-        <v>239.656348563952</v>
+        <v>321.1893017220161</v>
       </c>
       <c r="W38" t="n">
         <v>261.1450588112301</v>
@@ -3600,7 +3600,7 @@
         <v>100.0701892325241</v>
       </c>
       <c r="I39" t="n">
-        <v>46.02821696531915</v>
+        <v>46.02821696531917</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.95104494454452</v>
+        <v>21.95104494454456</v>
       </c>
       <c r="S39" t="n">
         <v>148.2863250812116</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.73607027575437</v>
+        <v>91.73607027575434</v>
       </c>
       <c r="C40" t="n">
-        <v>79.15091119244491</v>
+        <v>79.15091119244488</v>
       </c>
       <c r="D40" t="n">
-        <v>60.51956311202943</v>
+        <v>60.5195631120294</v>
       </c>
       <c r="E40" t="n">
-        <v>58.33805274038625</v>
+        <v>58.33805274038622</v>
       </c>
       <c r="F40" t="n">
-        <v>57.32513811674832</v>
+        <v>57.32513811674829</v>
       </c>
       <c r="G40" t="n">
-        <v>78.83904829902977</v>
+        <v>78.83904829902974</v>
       </c>
       <c r="H40" t="n">
-        <v>64.7422745296689</v>
+        <v>64.74227452966886</v>
       </c>
       <c r="I40" t="n">
-        <v>35.5971288852755</v>
+        <v>35.59712888527548</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71493034412259</v>
+        <v>41.71493034412256</v>
       </c>
       <c r="S40" t="n">
         <v>117.5171194874011</v>
@@ -3718,16 +3718,16 @@
         <v>198.1655182964945</v>
       </c>
       <c r="V40" t="n">
-        <v>164.0417334176451</v>
+        <v>164.041733417645</v>
       </c>
       <c r="W40" t="n">
-        <v>198.4270884304081</v>
+        <v>198.427088430408</v>
       </c>
       <c r="X40" t="n">
         <v>137.6137454828542</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.4887434459119</v>
+        <v>130.4887434459118</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>232.8366852571997</v>
       </c>
       <c r="I41" t="n">
-        <v>37.18691802512862</v>
+        <v>37.18691802512858</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.84534499707138</v>
+        <v>72.84534499707134</v>
       </c>
       <c r="T41" t="n">
         <v>130.2622785722845</v>
       </c>
       <c r="U41" t="n">
-        <v>168.629333821721</v>
+        <v>168.6293338217209</v>
       </c>
       <c r="V41" t="n">
-        <v>245.2242768249638</v>
+        <v>245.2242768249637</v>
       </c>
       <c r="W41" t="n">
         <v>266.7129870722418</v>
@@ -3806,7 +3806,7 @@
         <v>287.2031190332979</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.7099570108825</v>
+        <v>303.7099570108824</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.30399853676616</v>
+        <v>97.30399853676612</v>
       </c>
       <c r="C43" t="n">
-        <v>84.7188394534567</v>
+        <v>84.71883945345665</v>
       </c>
       <c r="D43" t="n">
-        <v>66.08749137304122</v>
+        <v>66.08749137304117</v>
       </c>
       <c r="E43" t="n">
-        <v>63.90598100139803</v>
+        <v>63.90598100139799</v>
       </c>
       <c r="F43" t="n">
-        <v>62.89306637776011</v>
+        <v>62.89306637776006</v>
       </c>
       <c r="G43" t="n">
-        <v>84.40697656004156</v>
+        <v>84.40697656004151</v>
       </c>
       <c r="H43" t="n">
-        <v>70.31020279068069</v>
+        <v>70.31020279068065</v>
       </c>
       <c r="I43" t="n">
-        <v>41.1650571462873</v>
+        <v>41.16505714628725</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.28285860513439</v>
+        <v>47.28285860513434</v>
       </c>
       <c r="S43" t="n">
-        <v>123.0850477484129</v>
+        <v>123.0850477484128</v>
       </c>
       <c r="T43" t="n">
         <v>140.905517401059</v>
@@ -3955,16 +3955,16 @@
         <v>203.7334465575063</v>
       </c>
       <c r="V43" t="n">
-        <v>169.6096616786569</v>
+        <v>169.6096616786568</v>
       </c>
       <c r="W43" t="n">
-        <v>71.25115260628954</v>
+        <v>203.9950166914198</v>
       </c>
       <c r="X43" t="n">
         <v>143.181673743866</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.0566717069237</v>
+        <v>3.31280762179442</v>
       </c>
     </row>
     <row r="44">
@@ -4135,7 +4135,7 @@
         <v>97.30399853676617</v>
       </c>
       <c r="C46" t="n">
-        <v>84.71883945345671</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>66.08749137304123</v>
@@ -4147,13 +4147,13 @@
         <v>62.89306637776012</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>84.40697656004157</v>
       </c>
       <c r="H46" t="n">
-        <v>70.31020279068069</v>
+        <v>70.31020279068071</v>
       </c>
       <c r="I46" t="n">
-        <v>41.16505714628731</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>123.0850477484129</v>
       </c>
       <c r="T46" t="n">
-        <v>140.905517401059</v>
+        <v>134.0455499156727</v>
       </c>
       <c r="U46" t="n">
         <v>203.7334465575063</v>
@@ -4195,7 +4195,7 @@
         <v>169.6096616786569</v>
       </c>
       <c r="W46" t="n">
-        <v>155.6581291663307</v>
+        <v>203.9950166914199</v>
       </c>
       <c r="X46" t="n">
         <v>143.181673743866</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C2" t="n">
-        <v>290.2572196227447</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D2" t="n">
-        <v>290.2572196227447</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E2" t="n">
-        <v>290.2572196227447</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>479.7536884346249</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="C3" t="n">
-        <v>305.3006591534979</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D3" t="n">
-        <v>305.3006591534979</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>305.3006591534979</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4413,46 +4413,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>889.7005818408129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>889.7005818408129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>687.5139871995789</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>687.5139871995789</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>687.5139871995789</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>687.5139871995789</v>
+        <v>788.2502491300006</v>
       </c>
       <c r="X3" t="n">
-        <v>687.5139871995789</v>
+        <v>580.3987489244678</v>
       </c>
       <c r="Y3" t="n">
-        <v>479.7536884346249</v>
+        <v>372.6384501595139</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.7186438601369</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>241.7186438601369</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>241.7186438601369</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>241.7186438601369</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>485.167420504237</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>241.7186438601369</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>241.7186438601369</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.7186438601369</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.8157010833278</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="C6" t="n">
-        <v>165.8157010833278</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D6" t="n">
-        <v>165.8157010833278</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>541.8825383089286</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W6" t="n">
-        <v>541.8825383089286</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X6" t="n">
-        <v>334.0310381033958</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y6" t="n">
-        <v>334.0310381033958</v>
+        <v>527.9820370414925</v>
       </c>
     </row>
     <row r="7">
@@ -4705,7 +4705,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285.1327311248648</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>772.0302844130649</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>772.0302844130649</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>528.5815077689649</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V8" t="n">
-        <v>528.5815077689649</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W8" t="n">
-        <v>528.5815077689649</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X8" t="n">
-        <v>528.5815077689649</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.1327311248648</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>397.4029371266039</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C9" t="n">
-        <v>222.9499078454769</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D9" t="n">
-        <v>222.9499078454769</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>222.9499078454769</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4917,16 +4917,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>521.1447485139397</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1659.688414006999</v>
+        <v>1741.193390853311</v>
       </c>
       <c r="C11" t="n">
-        <v>1314.196506709171</v>
+        <v>1395.701483555483</v>
       </c>
       <c r="D11" t="n">
-        <v>1314.196506709171</v>
+        <v>1395.701483555483</v>
       </c>
       <c r="E11" t="n">
-        <v>951.8788637535102</v>
+        <v>1246.95842269918</v>
       </c>
       <c r="F11" t="n">
-        <v>564.3635686064863</v>
+        <v>859.4431275521561</v>
       </c>
       <c r="G11" t="n">
-        <v>170.7144615790393</v>
+        <v>465.7940205247091</v>
       </c>
       <c r="H11" t="n">
-        <v>170.7144615790393</v>
+        <v>170.7144615790394</v>
       </c>
       <c r="I11" t="n">
         <v>73.26093014051204</v>
       </c>
       <c r="J11" t="n">
-        <v>259.2443315490723</v>
+        <v>259.2443315490727</v>
       </c>
       <c r="K11" t="n">
-        <v>658.7300432849238</v>
+        <v>658.730043284924</v>
       </c>
       <c r="L11" t="n">
         <v>1206.604021178496</v>
@@ -5078,13 +5078,13 @@
         <v>2800.289389235608</v>
       </c>
       <c r="W11" t="n">
-        <v>2470.991343608077</v>
+        <v>2470.991343608078</v>
       </c>
       <c r="X11" t="n">
-        <v>2389.486366761766</v>
+        <v>2470.991343608078</v>
       </c>
       <c r="Y11" t="n">
-        <v>2022.817644428537</v>
+        <v>2104.32262127485</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J12" t="n">
-        <v>190.3379902225955</v>
+        <v>73.26093014051204</v>
       </c>
       <c r="K12" t="n">
-        <v>517.0621767774533</v>
+        <v>138.1645320529169</v>
       </c>
       <c r="L12" t="n">
-        <v>650.6556203057939</v>
+        <v>365.8516484470864</v>
       </c>
       <c r="M12" t="n">
-        <v>1286.957748992485</v>
+        <v>1002.153777133777</v>
       </c>
       <c r="N12" t="n">
-        <v>1481.258964436775</v>
+        <v>1671.003943178186</v>
       </c>
       <c r="O12" t="n">
-        <v>2026.710517629949</v>
+        <v>2216.45549637136</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.480409248441</v>
+        <v>2637.225387989852</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.824633197486</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>447.7687817054004</v>
+        <v>258.4247748486266</v>
       </c>
       <c r="C13" t="n">
-        <v>447.7687817054004</v>
+        <v>112.9592015633032</v>
       </c>
       <c r="D13" t="n">
-        <v>321.1227519356483</v>
+        <v>112.9592015633032</v>
       </c>
       <c r="E13" t="n">
-        <v>196.6802679958388</v>
+        <v>112.9592015633032</v>
       </c>
       <c r="F13" t="n">
         <v>73.26093014051204</v>
@@ -5197,25 +5197,25 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J13" t="n">
-        <v>77.75297491485402</v>
+        <v>77.75297491485395</v>
       </c>
       <c r="K13" t="n">
-        <v>200.1732755642885</v>
+        <v>200.1732755642884</v>
       </c>
       <c r="L13" t="n">
-        <v>405.9224745443731</v>
+        <v>405.9224745443727</v>
       </c>
       <c r="M13" t="n">
-        <v>631.9948119560885</v>
+        <v>631.9948119560881</v>
       </c>
       <c r="N13" t="n">
-        <v>858.6732437755402</v>
+        <v>858.6732437755397</v>
       </c>
       <c r="O13" t="n">
         <v>1053.787216937164</v>
       </c>
       <c r="P13" t="n">
-        <v>1200.540283925176</v>
+        <v>1200.540283925175</v>
       </c>
       <c r="Q13" t="n">
         <v>1225.78650319964</v>
@@ -5227,22 +5227,22 @@
         <v>1225.78650319964</v>
       </c>
       <c r="T13" t="n">
-        <v>1023.566709765223</v>
+        <v>1225.78650319964</v>
       </c>
       <c r="U13" t="n">
-        <v>1023.566709765223</v>
+        <v>960.1041550617408</v>
       </c>
       <c r="V13" t="n">
-        <v>1023.566709765223</v>
+        <v>728.8902764984375</v>
       </c>
       <c r="W13" t="n">
-        <v>757.6201493708464</v>
+        <v>462.9437161040603</v>
       </c>
       <c r="X13" t="n">
-        <v>605.9466368930566</v>
+        <v>258.4247748486266</v>
       </c>
       <c r="Y13" t="n">
-        <v>605.9466368930566</v>
+        <v>258.4247748486266</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1944.071154619008</v>
+        <v>1391.198242234815</v>
       </c>
       <c r="C14" t="n">
-        <v>1944.071154619008</v>
+        <v>1045.706334936987</v>
       </c>
       <c r="D14" t="n">
-        <v>1609.276065654841</v>
+        <v>710.9112459728203</v>
       </c>
       <c r="E14" t="n">
-        <v>1246.95842269918</v>
+        <v>710.9112459728203</v>
       </c>
       <c r="F14" t="n">
-        <v>859.4431275521562</v>
+        <v>710.9112459728203</v>
       </c>
       <c r="G14" t="n">
-        <v>465.7940205247092</v>
+        <v>368.3404890861817</v>
       </c>
       <c r="H14" t="n">
-        <v>170.7144615790394</v>
+        <v>73.26093014051204</v>
       </c>
       <c r="I14" t="n">
         <v>73.26093014051204</v>
       </c>
       <c r="J14" t="n">
-        <v>259.2443315490727</v>
+        <v>259.2443315490723</v>
       </c>
       <c r="K14" t="n">
-        <v>658.730043284924</v>
+        <v>658.7300432849238</v>
       </c>
       <c r="L14" t="n">
         <v>1206.604021178496</v>
@@ -5312,16 +5312,16 @@
         <v>3107.881666936595</v>
       </c>
       <c r="V14" t="n">
-        <v>2990.033071198263</v>
+        <v>2800.289389235608</v>
       </c>
       <c r="W14" t="n">
-        <v>2660.735025570732</v>
+        <v>2470.991343608078</v>
       </c>
       <c r="X14" t="n">
-        <v>2310.739876952236</v>
+        <v>2120.996194989581</v>
       </c>
       <c r="Y14" t="n">
-        <v>1944.071154619008</v>
+        <v>1754.327472656353</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J15" t="n">
-        <v>73.26093014051204</v>
+        <v>190.3379902225955</v>
       </c>
       <c r="K15" t="n">
-        <v>138.1645320529169</v>
+        <v>255.2415921350004</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8899174316822</v>
+        <v>755.9669775137656</v>
       </c>
       <c r="M15" t="n">
-        <v>1275.192046118373</v>
+        <v>1392.269106200456</v>
       </c>
       <c r="N15" t="n">
-        <v>1852.951124403657</v>
+        <v>1586.570321644747</v>
       </c>
       <c r="O15" t="n">
-        <v>2008.478981512869</v>
+        <v>2132.021874837921</v>
       </c>
       <c r="P15" t="n">
         <v>2429.248873131361</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278.7243970662558</v>
+        <v>321.8873295521098</v>
       </c>
       <c r="C16" t="n">
-        <v>133.2588237809325</v>
+        <v>321.8873295521098</v>
       </c>
       <c r="D16" t="n">
-        <v>133.2588237809325</v>
+        <v>196.6802679958387</v>
       </c>
       <c r="E16" t="n">
-        <v>133.2588237809325</v>
+        <v>196.6802679958387</v>
       </c>
       <c r="F16" t="n">
         <v>73.26093014051204</v>
@@ -5434,52 +5434,52 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J16" t="n">
-        <v>77.75297491485401</v>
+        <v>77.75297491485405</v>
       </c>
       <c r="K16" t="n">
-        <v>200.1732755642885</v>
+        <v>200.1732755642886</v>
       </c>
       <c r="L16" t="n">
-        <v>405.922474544373</v>
+        <v>405.9224745443732</v>
       </c>
       <c r="M16" t="n">
-        <v>631.9948119560883</v>
+        <v>631.9948119560886</v>
       </c>
       <c r="N16" t="n">
-        <v>858.67324377554</v>
+        <v>858.6732437755404</v>
       </c>
       <c r="O16" t="n">
         <v>1053.787216937164</v>
       </c>
       <c r="P16" t="n">
-        <v>1200.540283925175</v>
+        <v>1200.540283925176</v>
       </c>
       <c r="Q16" t="n">
-        <v>1225.786503199639</v>
+        <v>1225.78650319964</v>
       </c>
       <c r="R16" t="n">
-        <v>1225.786503199639</v>
+        <v>1225.78650319964</v>
       </c>
       <c r="S16" t="n">
-        <v>1041.567184161835</v>
+        <v>1225.78650319964</v>
       </c>
       <c r="T16" t="n">
-        <v>1041.567184161835</v>
+        <v>1023.566709765224</v>
       </c>
       <c r="U16" t="n">
-        <v>775.8848360239363</v>
+        <v>1023.566709765224</v>
       </c>
       <c r="V16" t="n">
-        <v>544.670957460633</v>
+        <v>792.3528312019205</v>
       </c>
       <c r="W16" t="n">
-        <v>278.7243970662558</v>
+        <v>526.4062708075435</v>
       </c>
       <c r="X16" t="n">
-        <v>278.7243970662558</v>
+        <v>321.8873295521098</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.7243970662558</v>
+        <v>321.8873295521098</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>679.7701636157518</v>
       </c>
       <c r="G17" t="n">
-        <v>346.0120445671062</v>
+        <v>346.0120445671064</v>
       </c>
       <c r="H17" t="n">
-        <v>110.8234736002378</v>
+        <v>110.8234736002379</v>
       </c>
       <c r="I17" t="n">
         <v>73.26093014051204</v>
       </c>
       <c r="J17" t="n">
-        <v>259.2443315490726</v>
+        <v>259.2443315490727</v>
       </c>
       <c r="K17" t="n">
-        <v>658.7300432849238</v>
+        <v>658.7300432849242</v>
       </c>
       <c r="L17" t="n">
-        <v>1206.604021178496</v>
+        <v>1206.604021178497</v>
       </c>
       <c r="M17" t="n">
         <v>1832.825931072074</v>
@@ -5598,16 +5598,16 @@
         <v>517.0621767774531</v>
       </c>
       <c r="L18" t="n">
-        <v>1017.787562156218</v>
+        <v>650.6556203057937</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.089690842909</v>
+        <v>1286.957748992484</v>
       </c>
       <c r="N18" t="n">
-        <v>1848.390906287199</v>
+        <v>1481.258964436774</v>
       </c>
       <c r="O18" t="n">
-        <v>2008.478981512869</v>
+        <v>2026.710517629949</v>
       </c>
       <c r="P18" t="n">
         <v>2429.248873131361</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>551.5312480219926</v>
+        <v>551.5312480219924</v>
       </c>
       <c r="C19" t="n">
-        <v>465.9566627154707</v>
+        <v>465.9566627154704</v>
       </c>
       <c r="D19" t="n">
-        <v>399.2016209245199</v>
+        <v>399.2016209245197</v>
       </c>
       <c r="E19" t="n">
-        <v>334.6501249635118</v>
+        <v>334.6501249635116</v>
       </c>
       <c r="F19" t="n">
-        <v>271.1217750869864</v>
+        <v>271.1217750869862</v>
       </c>
       <c r="G19" t="n">
-        <v>185.8622028041161</v>
+        <v>185.862202804116</v>
       </c>
       <c r="H19" t="n">
-        <v>114.8417959448427</v>
+        <v>114.8417959448426</v>
       </c>
       <c r="I19" t="n">
         <v>73.26093014051204</v>
       </c>
       <c r="J19" t="n">
-        <v>136.4521322328772</v>
+        <v>136.4521322328773</v>
       </c>
       <c r="K19" t="n">
         <v>317.571590200335</v>
       </c>
       <c r="L19" t="n">
-        <v>582.0199464984427</v>
+        <v>582.0199464984428</v>
       </c>
       <c r="M19" t="n">
-        <v>866.7914412281813</v>
+        <v>866.7914412281814</v>
       </c>
       <c r="N19" t="n">
         <v>1152.169030365656</v>
@@ -5692,7 +5692,7 @@
         <v>1611.434385151338</v>
       </c>
       <c r="Q19" t="n">
-        <v>1695.379761743825</v>
+        <v>1695.379761743826</v>
       </c>
       <c r="R19" t="n">
         <v>1647.619298506316</v>
@@ -5707,16 +5707,16 @@
         <v>1175.170801832601</v>
       </c>
       <c r="V19" t="n">
-        <v>1003.847911248099</v>
+        <v>1137.9326224452</v>
       </c>
       <c r="W19" t="n">
-        <v>797.7923388325232</v>
+        <v>931.8770500296246</v>
       </c>
       <c r="X19" t="n">
-        <v>653.1643855558909</v>
+        <v>787.2490967529923</v>
       </c>
       <c r="Y19" t="n">
-        <v>649.8181152308473</v>
+        <v>649.8181152308471</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1309.821125760834</v>
       </c>
       <c r="E20" t="n">
-        <v>1007.394470783975</v>
+        <v>1007.394470783974</v>
       </c>
       <c r="F20" t="n">
-        <v>679.7701636157522</v>
+        <v>679.7701636157519</v>
       </c>
       <c r="G20" t="n">
-        <v>346.0120445671066</v>
+        <v>346.0120445671064</v>
       </c>
       <c r="H20" t="n">
         <v>110.8234736002379</v>
@@ -5750,22 +5750,22 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J20" t="n">
-        <v>259.2443315490726</v>
+        <v>259.2443315490727</v>
       </c>
       <c r="K20" t="n">
-        <v>658.7300432849249</v>
+        <v>658.7300432849242</v>
       </c>
       <c r="L20" t="n">
         <v>1206.604021178497</v>
       </c>
       <c r="M20" t="n">
-        <v>1832.825931072075</v>
+        <v>1832.825931072074</v>
       </c>
       <c r="N20" t="n">
-        <v>2454.548768616768</v>
+        <v>2454.548768616767</v>
       </c>
       <c r="O20" t="n">
-        <v>2996.436376295534</v>
+        <v>2996.436376295533</v>
       </c>
       <c r="P20" t="n">
         <v>3421.250529528935</v>
@@ -5777,7 +5777,7 @@
         <v>3663.046507025602</v>
       </c>
       <c r="S20" t="n">
-        <v>3589.465350462904</v>
+        <v>3589.465350462903</v>
       </c>
       <c r="T20" t="n">
         <v>3457.88729129898</v>
@@ -5832,19 +5832,19 @@
         <v>190.3379902225955</v>
       </c>
       <c r="K21" t="n">
-        <v>517.0621767774531</v>
+        <v>255.2415921350004</v>
       </c>
       <c r="L21" t="n">
-        <v>1017.787562156218</v>
+        <v>755.9669775137656</v>
       </c>
       <c r="M21" t="n">
-        <v>1193.041677730409</v>
+        <v>1392.269106200456</v>
       </c>
       <c r="N21" t="n">
-        <v>1463.027428319695</v>
+        <v>1586.570321644746</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.478981512869</v>
+        <v>2132.021874837921</v>
       </c>
       <c r="P21" t="n">
         <v>2429.248873131361</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>417.4465368248913</v>
+        <v>465.9566627154707</v>
       </c>
       <c r="C22" t="n">
-        <v>331.8719515183694</v>
+        <v>465.9566627154707</v>
       </c>
       <c r="D22" t="n">
-        <v>265.1169097274187</v>
+        <v>399.2016209245199</v>
       </c>
       <c r="E22" t="n">
-        <v>200.5654137664106</v>
+        <v>334.6501249635118</v>
       </c>
       <c r="F22" t="n">
-        <v>200.5654137664106</v>
+        <v>271.1217750869864</v>
       </c>
       <c r="G22" t="n">
-        <v>185.862202804116</v>
+        <v>185.8622028041161</v>
       </c>
       <c r="H22" t="n">
-        <v>114.8417959448426</v>
+        <v>114.8417959448427</v>
       </c>
       <c r="I22" t="n">
         <v>73.26093014051204</v>
       </c>
       <c r="J22" t="n">
-        <v>136.4521322328773</v>
+        <v>136.4521322328772</v>
       </c>
       <c r="K22" t="n">
         <v>317.571590200335</v>
       </c>
       <c r="L22" t="n">
-        <v>582.0199464984428</v>
+        <v>582.0199464984427</v>
       </c>
       <c r="M22" t="n">
         <v>866.7914412281814</v>
@@ -5929,13 +5929,13 @@
         <v>1611.434385151338</v>
       </c>
       <c r="Q22" t="n">
-        <v>1695.379761743826</v>
+        <v>1695.379761743825</v>
       </c>
       <c r="R22" t="n">
         <v>1647.619298506316</v>
       </c>
       <c r="S22" t="n">
-        <v>1523.290967447314</v>
+        <v>1523.290967447313</v>
       </c>
       <c r="T22" t="n">
         <v>1380.962161991698</v>
@@ -5947,13 +5947,13 @@
         <v>1003.847911248099</v>
       </c>
       <c r="W22" t="n">
-        <v>797.7923388325237</v>
+        <v>797.792338832523</v>
       </c>
       <c r="X22" t="n">
-        <v>653.1643855558914</v>
+        <v>653.1643855558906</v>
       </c>
       <c r="Y22" t="n">
-        <v>515.733404033746</v>
+        <v>515.733404033745</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1870.326146065225</v>
+        <v>1870.326146065226</v>
       </c>
       <c r="C23" t="n">
-        <v>1584.725226746198</v>
+        <v>1584.725226746199</v>
       </c>
       <c r="D23" t="n">
-        <v>1309.821125760833</v>
+        <v>1309.821125760834</v>
       </c>
       <c r="E23" t="n">
         <v>1007.394470783974</v>
       </c>
       <c r="F23" t="n">
-        <v>679.770163615751</v>
+        <v>679.7701636157519</v>
       </c>
       <c r="G23" t="n">
-        <v>346.0120445671055</v>
+        <v>346.0120445671064</v>
       </c>
       <c r="H23" t="n">
         <v>110.8234736002379</v>
@@ -5990,7 +5990,7 @@
         <v>259.2443315490727</v>
       </c>
       <c r="K23" t="n">
-        <v>658.7300432849238</v>
+        <v>658.7300432849242</v>
       </c>
       <c r="L23" t="n">
         <v>1206.604021178496</v>
@@ -6014,25 +6014,25 @@
         <v>3663.046507025602</v>
       </c>
       <c r="S23" t="n">
-        <v>3589.465350462903</v>
+        <v>3589.465350462904</v>
       </c>
       <c r="T23" t="n">
         <v>3457.88729129898</v>
       </c>
       <c r="U23" t="n">
-        <v>3287.554630872998</v>
+        <v>3287.554630872999</v>
       </c>
       <c r="V23" t="n">
-        <v>3039.853341150812</v>
+        <v>3039.853341150814</v>
       </c>
       <c r="W23" t="n">
-        <v>2770.446283502083</v>
+        <v>2770.446283502084</v>
       </c>
       <c r="X23" t="n">
-        <v>2480.342122862388</v>
+        <v>2480.34212286239</v>
       </c>
       <c r="Y23" t="n">
-        <v>2173.564388507962</v>
+        <v>2173.564388507963</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>465.2070000624005</v>
+        <v>484.776206231042</v>
       </c>
       <c r="C25" t="n">
-        <v>379.6324147558785</v>
+        <v>399.2016209245201</v>
       </c>
       <c r="D25" t="n">
-        <v>312.8773729649278</v>
+        <v>399.2016209245201</v>
       </c>
       <c r="E25" t="n">
-        <v>248.3258770039196</v>
+        <v>334.6501249635118</v>
       </c>
       <c r="F25" t="n">
-        <v>200.101368227713</v>
+        <v>271.1217750869864</v>
       </c>
       <c r="G25" t="n">
-        <v>114.8417959448427</v>
+        <v>185.8622028041161</v>
       </c>
       <c r="H25" t="n">
         <v>114.8417959448427</v>
@@ -6166,31 +6166,31 @@
         <v>1611.434385151338</v>
       </c>
       <c r="Q25" t="n">
-        <v>1695.379761743825</v>
+        <v>1695.379761743826</v>
       </c>
       <c r="R25" t="n">
-        <v>1695.379761743825</v>
+        <v>1695.379761743826</v>
       </c>
       <c r="S25" t="n">
-        <v>1571.051430684822</v>
+        <v>1571.051430684823</v>
       </c>
       <c r="T25" t="n">
-        <v>1428.722625229207</v>
+        <v>1448.291831397849</v>
       </c>
       <c r="U25" t="n">
-        <v>1222.93126507011</v>
+        <v>1242.500471238752</v>
       </c>
       <c r="V25" t="n">
-        <v>1051.608374485608</v>
+        <v>1071.17758065425</v>
       </c>
       <c r="W25" t="n">
-        <v>845.5528020700327</v>
+        <v>865.1220082386744</v>
       </c>
       <c r="X25" t="n">
-        <v>700.9248487934003</v>
+        <v>720.494054962042</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.4938672712552</v>
+        <v>583.0630734398967</v>
       </c>
     </row>
     <row r="26">
@@ -6209,16 +6209,16 @@
         <v>1309.821125760834</v>
       </c>
       <c r="E26" t="n">
-        <v>1007.394470783975</v>
+        <v>1007.394470783974</v>
       </c>
       <c r="F26" t="n">
-        <v>679.770163615752</v>
+        <v>679.7701636157519</v>
       </c>
       <c r="G26" t="n">
         <v>346.0120445671064</v>
       </c>
       <c r="H26" t="n">
-        <v>110.823473600238</v>
+        <v>110.8234736002379</v>
       </c>
       <c r="I26" t="n">
         <v>73.26093014051204</v>
@@ -6251,7 +6251,7 @@
         <v>3663.046507025602</v>
       </c>
       <c r="S26" t="n">
-        <v>3589.465350462904</v>
+        <v>3589.465350462903</v>
       </c>
       <c r="T26" t="n">
         <v>3457.88729129898</v>
@@ -6312,10 +6312,10 @@
         <v>1017.787562156218</v>
       </c>
       <c r="M27" t="n">
-        <v>1193.041677730409</v>
+        <v>1654.089690842909</v>
       </c>
       <c r="N27" t="n">
-        <v>1463.027428319695</v>
+        <v>1852.951124403658</v>
       </c>
       <c r="O27" t="n">
         <v>2008.478981512869</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.531248021993</v>
+        <v>417.4465368248909</v>
       </c>
       <c r="C28" t="n">
-        <v>465.956662715471</v>
+        <v>331.8719515183689</v>
       </c>
       <c r="D28" t="n">
-        <v>399.2016209245202</v>
+        <v>331.8719515183689</v>
       </c>
       <c r="E28" t="n">
-        <v>334.650124963512</v>
+        <v>267.3204555573608</v>
       </c>
       <c r="F28" t="n">
-        <v>271.1217750869865</v>
+        <v>203.7921056808354</v>
       </c>
       <c r="G28" t="n">
-        <v>185.8622028041162</v>
+        <v>185.8622028041161</v>
       </c>
       <c r="H28" t="n">
         <v>114.8417959448427</v>
@@ -6382,16 +6382,16 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J28" t="n">
-        <v>136.4521322328772</v>
+        <v>136.4521322328771</v>
       </c>
       <c r="K28" t="n">
         <v>317.5715902003349</v>
       </c>
       <c r="L28" t="n">
-        <v>582.0199464984424</v>
+        <v>582.0199464984426</v>
       </c>
       <c r="M28" t="n">
-        <v>866.791441228181</v>
+        <v>866.7914412281812</v>
       </c>
       <c r="N28" t="n">
         <v>1152.169030365656</v>
@@ -6403,31 +6403,31 @@
         <v>1611.434385151338</v>
       </c>
       <c r="Q28" t="n">
-        <v>1695.379761743825</v>
+        <v>1695.379761743826</v>
       </c>
       <c r="R28" t="n">
         <v>1647.619298506316</v>
       </c>
       <c r="S28" t="n">
-        <v>1647.619298506316</v>
+        <v>1523.290967447313</v>
       </c>
       <c r="T28" t="n">
-        <v>1505.2904930507</v>
+        <v>1380.962161991698</v>
       </c>
       <c r="U28" t="n">
-        <v>1299.499132891603</v>
+        <v>1175.170801832601</v>
       </c>
       <c r="V28" t="n">
-        <v>1128.176242307101</v>
+        <v>1003.847911248099</v>
       </c>
       <c r="W28" t="n">
-        <v>922.1206698915254</v>
+        <v>797.7923388325232</v>
       </c>
       <c r="X28" t="n">
-        <v>777.4927166148929</v>
+        <v>653.1643855558909</v>
       </c>
       <c r="Y28" t="n">
-        <v>649.8181152308478</v>
+        <v>515.7334040337456</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1870.326146065225</v>
+        <v>1870.326146065226</v>
       </c>
       <c r="C29" t="n">
         <v>1584.725226746199</v>
@@ -6449,19 +6449,19 @@
         <v>1007.394470783974</v>
       </c>
       <c r="F29" t="n">
-        <v>679.7701636157518</v>
+        <v>679.7701636157516</v>
       </c>
       <c r="G29" t="n">
-        <v>346.0120445671062</v>
+        <v>346.0120445671059</v>
       </c>
       <c r="H29" t="n">
-        <v>110.8234736002378</v>
+        <v>110.823473600238</v>
       </c>
       <c r="I29" t="n">
         <v>73.26093014051204</v>
       </c>
       <c r="J29" t="n">
-        <v>259.2443315490727</v>
+        <v>259.2443315490726</v>
       </c>
       <c r="K29" t="n">
         <v>658.7300432849238</v>
@@ -6479,10 +6479,10 @@
         <v>2996.436376295533</v>
       </c>
       <c r="P29" t="n">
-        <v>3421.250529528935</v>
+        <v>3421.250529528934</v>
       </c>
       <c r="Q29" t="n">
-        <v>3663.046507025602</v>
+        <v>3663.046507025601</v>
       </c>
       <c r="R29" t="n">
         <v>3663.046507025602</v>
@@ -6506,7 +6506,7 @@
         <v>2480.342122862389</v>
       </c>
       <c r="Y29" t="n">
-        <v>2173.564388507962</v>
+        <v>2173.564388507963</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>1017.787562156218</v>
       </c>
       <c r="M30" t="n">
-        <v>1193.041677730409</v>
+        <v>1268.726212875405</v>
       </c>
       <c r="N30" t="n">
         <v>1463.027428319695</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>551.5312480219926</v>
+        <v>551.531248021993</v>
       </c>
       <c r="C31" t="n">
-        <v>465.9566627154707</v>
+        <v>465.9566627154711</v>
       </c>
       <c r="D31" t="n">
-        <v>399.2016209245199</v>
+        <v>399.2016209245202</v>
       </c>
       <c r="E31" t="n">
-        <v>334.6501249635118</v>
+        <v>334.650124963512</v>
       </c>
       <c r="F31" t="n">
-        <v>271.1217750869864</v>
+        <v>271.1217750869866</v>
       </c>
       <c r="G31" t="n">
-        <v>185.8622028041161</v>
+        <v>185.8622028041162</v>
       </c>
       <c r="H31" t="n">
         <v>114.8417959448427</v>
@@ -6619,16 +6619,16 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J31" t="n">
-        <v>136.4521322328771</v>
+        <v>136.4521322328772</v>
       </c>
       <c r="K31" t="n">
         <v>317.5715902003349</v>
       </c>
       <c r="L31" t="n">
-        <v>582.0199464984426</v>
+        <v>582.0199464984428</v>
       </c>
       <c r="M31" t="n">
-        <v>866.7914412281814</v>
+        <v>866.7914412281813</v>
       </c>
       <c r="N31" t="n">
         <v>1152.169030365656</v>
@@ -6640,7 +6640,7 @@
         <v>1611.434385151338</v>
       </c>
       <c r="Q31" t="n">
-        <v>1695.379761743826</v>
+        <v>1695.379761743825</v>
       </c>
       <c r="R31" t="n">
         <v>1647.619298506316</v>
@@ -6649,22 +6649,22 @@
         <v>1523.290967447313</v>
       </c>
       <c r="T31" t="n">
-        <v>1515.046873188799</v>
+        <v>1380.962161991697</v>
       </c>
       <c r="U31" t="n">
-        <v>1309.255513029703</v>
+        <v>1175.1708018326</v>
       </c>
       <c r="V31" t="n">
-        <v>1137.932622445201</v>
+        <v>1039.645755236346</v>
       </c>
       <c r="W31" t="n">
-        <v>931.8770500296249</v>
+        <v>833.5901828207706</v>
       </c>
       <c r="X31" t="n">
-        <v>787.2490967529925</v>
+        <v>688.9622295441382</v>
       </c>
       <c r="Y31" t="n">
-        <v>649.8181152308473</v>
+        <v>551.531248021993</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1870.326146065225</v>
+        <v>1870.326146065226</v>
       </c>
       <c r="C32" t="n">
-        <v>1584.725226746198</v>
+        <v>1584.725226746199</v>
       </c>
       <c r="D32" t="n">
-        <v>1309.821125760832</v>
+        <v>1309.821125760834</v>
       </c>
       <c r="E32" t="n">
-        <v>1007.394470783973</v>
+        <v>1007.394470783975</v>
       </c>
       <c r="F32" t="n">
-        <v>679.770163615751</v>
+        <v>679.7701636157524</v>
       </c>
       <c r="G32" t="n">
-        <v>346.0120445671055</v>
+        <v>346.0120445671068</v>
       </c>
       <c r="H32" t="n">
         <v>110.8234736002379</v>
@@ -6725,25 +6725,25 @@
         <v>3663.046507025602</v>
       </c>
       <c r="S32" t="n">
-        <v>3589.465350462903</v>
+        <v>3589.465350462904</v>
       </c>
       <c r="T32" t="n">
         <v>3457.88729129898</v>
       </c>
       <c r="U32" t="n">
-        <v>3287.554630872998</v>
+        <v>3287.554630872999</v>
       </c>
       <c r="V32" t="n">
-        <v>3039.853341150812</v>
+        <v>3039.853341150814</v>
       </c>
       <c r="W32" t="n">
-        <v>2770.446283502083</v>
+        <v>2770.446283502084</v>
       </c>
       <c r="X32" t="n">
-        <v>2480.342122862388</v>
+        <v>2480.34212286239</v>
       </c>
       <c r="Y32" t="n">
-        <v>2173.564388507962</v>
+        <v>2173.564388507963</v>
       </c>
     </row>
     <row r="33">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>417.4465368248905</v>
+        <v>551.5312480219926</v>
       </c>
       <c r="C34" t="n">
-        <v>402.4283128389452</v>
+        <v>465.9566627154707</v>
       </c>
       <c r="D34" t="n">
-        <v>335.6732710479945</v>
+        <v>399.2016209245199</v>
       </c>
       <c r="E34" t="n">
-        <v>271.1217750869864</v>
+        <v>334.6501249635118</v>
       </c>
       <c r="F34" t="n">
         <v>271.1217750869864</v>
@@ -6862,7 +6862,7 @@
         <v>317.571590200335</v>
       </c>
       <c r="L34" t="n">
-        <v>582.0199464984427</v>
+        <v>582.0199464984428</v>
       </c>
       <c r="M34" t="n">
         <v>866.7914412281814</v>
@@ -6877,7 +6877,7 @@
         <v>1611.434385151338</v>
       </c>
       <c r="Q34" t="n">
-        <v>1695.379761743825</v>
+        <v>1695.379761743826</v>
       </c>
       <c r="R34" t="n">
         <v>1647.619298506316</v>
@@ -6886,22 +6886,22 @@
         <v>1523.290967447313</v>
       </c>
       <c r="T34" t="n">
-        <v>1380.962161991698</v>
+        <v>1515.046873188799</v>
       </c>
       <c r="U34" t="n">
-        <v>1175.1708018326</v>
+        <v>1309.255513029702</v>
       </c>
       <c r="V34" t="n">
-        <v>1003.847911248098</v>
+        <v>1137.9326224452</v>
       </c>
       <c r="W34" t="n">
-        <v>797.7923388325228</v>
+        <v>931.8770500296248</v>
       </c>
       <c r="X34" t="n">
-        <v>653.1643855558904</v>
+        <v>787.2490967529925</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.7334040337452</v>
+        <v>649.8181152308473</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>1830.9569563409</v>
       </c>
       <c r="C35" t="n">
-        <v>1550.980206982492</v>
+        <v>1550.980206982491</v>
       </c>
       <c r="D35" t="n">
         <v>1281.700275957744</v>
       </c>
       <c r="E35" t="n">
-        <v>984.8977909415028</v>
+        <v>984.8977909415024</v>
       </c>
       <c r="F35" t="n">
-        <v>662.8976537338981</v>
+        <v>662.8976537338979</v>
       </c>
       <c r="G35" t="n">
-        <v>334.7637046458705</v>
+        <v>334.7637046458703</v>
       </c>
       <c r="H35" t="n">
-        <v>105.19930363962</v>
+        <v>105.1993036396199</v>
       </c>
       <c r="I35" t="n">
-        <v>73.26093014051206</v>
+        <v>73.26093014051204</v>
       </c>
       <c r="J35" t="n">
-        <v>259.2443315490727</v>
+        <v>259.2443315490738</v>
       </c>
       <c r="K35" t="n">
-        <v>658.7300432849242</v>
+        <v>658.7300432849249</v>
       </c>
       <c r="L35" t="n">
         <v>1206.604021178497</v>
@@ -6956,31 +6956,31 @@
         <v>3421.250529528935</v>
       </c>
       <c r="Q35" t="n">
-        <v>3663.046507025603</v>
+        <v>3663.046507025602</v>
       </c>
       <c r="R35" t="n">
-        <v>3663.046507025603</v>
+        <v>3661.04047595781</v>
       </c>
       <c r="S35" t="n">
-        <v>3510.726971014253</v>
+        <v>3593.08348935573</v>
       </c>
       <c r="T35" t="n">
-        <v>3384.773081810947</v>
+        <v>3384.773081810946</v>
       </c>
       <c r="U35" t="n">
-        <v>3220.064591345584</v>
+        <v>3220.064591345583</v>
       </c>
       <c r="V35" t="n">
-        <v>2977.987471584016</v>
+        <v>2977.987471584015</v>
       </c>
       <c r="W35" t="n">
-        <v>2714.204583895905</v>
+        <v>2714.204583895904</v>
       </c>
       <c r="X35" t="n">
-        <v>2429.724593216828</v>
+        <v>2429.724593216827</v>
       </c>
       <c r="Y35" t="n">
-        <v>2128.571028823019</v>
+        <v>2128.571028823018</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>119.7540785903294</v>
       </c>
       <c r="I36" t="n">
-        <v>73.26093014051206</v>
+        <v>73.26093014051204</v>
       </c>
       <c r="J36" t="n">
         <v>190.3379902225955</v>
       </c>
       <c r="K36" t="n">
-        <v>517.0621767774533</v>
+        <v>517.0621767774531</v>
       </c>
       <c r="L36" t="n">
-        <v>1017.787562156219</v>
+        <v>1017.787562156218</v>
       </c>
       <c r="M36" t="n">
         <v>1193.041677730409</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>512.1620582976657</v>
+        <v>512.1620582976667</v>
       </c>
       <c r="C37" t="n">
-        <v>432.2116429517616</v>
+        <v>432.2116429517628</v>
       </c>
       <c r="D37" t="n">
-        <v>371.0807711214289</v>
+        <v>371.0807711214298</v>
       </c>
       <c r="E37" t="n">
-        <v>312.1534451210387</v>
+        <v>312.1534451210397</v>
       </c>
       <c r="F37" t="n">
-        <v>254.2492652051311</v>
+        <v>254.2492652051323</v>
       </c>
       <c r="G37" t="n">
-        <v>174.6138628828787</v>
+        <v>174.61386288288</v>
       </c>
       <c r="H37" t="n">
         <v>109.2176259842246</v>
       </c>
       <c r="I37" t="n">
-        <v>73.26093014051206</v>
+        <v>73.26093014051204</v>
       </c>
       <c r="J37" t="n">
-        <v>141.9643812112791</v>
+        <v>141.9643812112788</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5960881571385</v>
+        <v>328.5960881571382</v>
       </c>
       <c r="L37" t="n">
-        <v>598.556693433648</v>
+        <v>598.5566934336476</v>
       </c>
       <c r="M37" t="n">
-        <v>888.8404371417885</v>
+        <v>888.840437141788</v>
       </c>
       <c r="N37" t="n">
         <v>1179.730275257665</v>
       </c>
       <c r="O37" t="n">
-        <v>1439.055654715714</v>
+        <v>1439.055654715713</v>
       </c>
       <c r="P37" t="n">
         <v>1650.02012800015</v>
@@ -7120,7 +7120,7 @@
         <v>1697.341460294148</v>
       </c>
       <c r="S37" t="n">
-        <v>1578.637299195763</v>
+        <v>1578.637299195762</v>
       </c>
       <c r="T37" t="n">
         <v>1441.932663700765</v>
@@ -7132,13 +7132,13 @@
         <v>1076.066752878402</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6353504234442</v>
+        <v>875.6353504234448</v>
       </c>
       <c r="X37" t="n">
-        <v>736.6315671074296</v>
+        <v>736.6315671074306</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.8247555459025</v>
+        <v>604.8247555459034</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7157,7 @@
         <v>1281.700275957744</v>
       </c>
       <c r="E38" t="n">
-        <v>984.8977909415025</v>
+        <v>984.8977909415024</v>
       </c>
       <c r="F38" t="n">
         <v>662.8976537338979</v>
@@ -7172,52 +7172,52 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J38" t="n">
-        <v>259.2443315490726</v>
+        <v>259.2443315490738</v>
       </c>
       <c r="K38" t="n">
-        <v>658.7300432849239</v>
+        <v>658.7300432849249</v>
       </c>
       <c r="L38" t="n">
-        <v>1206.604021178495</v>
+        <v>1206.604021178497</v>
       </c>
       <c r="M38" t="n">
-        <v>1832.825931072073</v>
+        <v>1832.825931072075</v>
       </c>
       <c r="N38" t="n">
-        <v>2454.548768616766</v>
+        <v>2454.548768616768</v>
       </c>
       <c r="O38" t="n">
-        <v>2996.436376295533</v>
+        <v>2996.436376295534</v>
       </c>
       <c r="P38" t="n">
-        <v>3421.250529528934</v>
+        <v>3421.250529528935</v>
       </c>
       <c r="Q38" t="n">
         <v>3663.046507025602</v>
       </c>
       <c r="R38" t="n">
-        <v>3663.046507025602</v>
+        <v>3661.04047595781</v>
       </c>
       <c r="S38" t="n">
-        <v>3510.726971014252</v>
+        <v>3593.08348935573</v>
       </c>
       <c r="T38" t="n">
-        <v>3384.773081810946</v>
+        <v>3467.129600152425</v>
       </c>
       <c r="U38" t="n">
-        <v>3220.064591345583</v>
+        <v>3302.421109687062</v>
       </c>
       <c r="V38" t="n">
-        <v>2977.987471584016</v>
+        <v>2977.987471584015</v>
       </c>
       <c r="W38" t="n">
         <v>2714.204583895904</v>
       </c>
       <c r="X38" t="n">
-        <v>2429.724593216828</v>
+        <v>2429.724593216827</v>
       </c>
       <c r="Y38" t="n">
-        <v>2128.571028823019</v>
+        <v>2128.571028823018</v>
       </c>
     </row>
     <row r="39">
@@ -7254,13 +7254,13 @@
         <v>190.3379902225955</v>
       </c>
       <c r="K39" t="n">
-        <v>517.0621767774533</v>
+        <v>517.0621767774531</v>
       </c>
       <c r="L39" t="n">
-        <v>1017.787562156219</v>
+        <v>1017.787562156218</v>
       </c>
       <c r="M39" t="n">
-        <v>1193.041677730409</v>
+        <v>1268.726212875405</v>
       </c>
       <c r="N39" t="n">
         <v>1463.027428319695</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>512.1620582976667</v>
+        <v>512.1620582976665</v>
       </c>
       <c r="C40" t="n">
-        <v>432.2116429517628</v>
+        <v>432.2116429517625</v>
       </c>
       <c r="D40" t="n">
-        <v>371.08077112143</v>
+        <v>371.0807711214298</v>
       </c>
       <c r="E40" t="n">
-        <v>312.1534451210399</v>
+        <v>312.1534451210397</v>
       </c>
       <c r="F40" t="n">
-        <v>254.2492652051324</v>
+        <v>254.2492652051323</v>
       </c>
       <c r="G40" t="n">
-        <v>174.6138628828801</v>
+        <v>174.61386288288</v>
       </c>
       <c r="H40" t="n">
-        <v>109.2176259842247</v>
+        <v>109.2176259842246</v>
       </c>
       <c r="I40" t="n">
         <v>73.26093014051204</v>
@@ -7333,13 +7333,13 @@
         <v>141.9643812112789</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5960881571384</v>
+        <v>328.5960881571385</v>
       </c>
       <c r="L40" t="n">
         <v>598.556693433648</v>
       </c>
       <c r="M40" t="n">
-        <v>888.8404371417881</v>
+        <v>888.8404371417884</v>
       </c>
       <c r="N40" t="n">
         <v>1179.730275257665</v>
@@ -7375,7 +7375,7 @@
         <v>736.6315671074303</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.8247555459035</v>
+        <v>604.8247555459031</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1309.821125760834</v>
       </c>
       <c r="E41" t="n">
-        <v>1007.394470783975</v>
+        <v>1007.394470783974</v>
       </c>
       <c r="F41" t="n">
-        <v>679.7701636157524</v>
+        <v>679.7701636157519</v>
       </c>
       <c r="G41" t="n">
-        <v>346.0120445671068</v>
+        <v>346.0120445671063</v>
       </c>
       <c r="H41" t="n">
         <v>110.8234736002379</v>
@@ -7409,22 +7409,22 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J41" t="n">
-        <v>259.2443315490726</v>
+        <v>259.2443315490727</v>
       </c>
       <c r="K41" t="n">
-        <v>658.7300432849238</v>
+        <v>658.7300432849242</v>
       </c>
       <c r="L41" t="n">
-        <v>1206.604021178496</v>
+        <v>1206.604021178497</v>
       </c>
       <c r="M41" t="n">
         <v>1832.825931072074</v>
       </c>
       <c r="N41" t="n">
-        <v>2454.548768616768</v>
+        <v>2454.548768616767</v>
       </c>
       <c r="O41" t="n">
-        <v>2996.436376295534</v>
+        <v>2996.436376295533</v>
       </c>
       <c r="P41" t="n">
         <v>3421.250529528935</v>
@@ -7445,13 +7445,13 @@
         <v>3287.554630872999</v>
       </c>
       <c r="V41" t="n">
-        <v>3039.853341150814</v>
+        <v>3039.853341150813</v>
       </c>
       <c r="W41" t="n">
         <v>2770.446283502084</v>
       </c>
       <c r="X41" t="n">
-        <v>2480.34212286239</v>
+        <v>2480.342122862389</v>
       </c>
       <c r="Y41" t="n">
         <v>2173.564388507963</v>
@@ -7497,7 +7497,7 @@
         <v>1017.787562156218</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.726212875405</v>
+        <v>1193.041677730409</v>
       </c>
       <c r="N42" t="n">
         <v>1463.027428319695</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>551.5312480219924</v>
+        <v>551.5312480219922</v>
       </c>
       <c r="C43" t="n">
-        <v>465.9566627154705</v>
+        <v>465.9566627154703</v>
       </c>
       <c r="D43" t="n">
-        <v>399.2016209245198</v>
+        <v>399.2016209245196</v>
       </c>
       <c r="E43" t="n">
-        <v>334.6501249635116</v>
+        <v>334.6501249635115</v>
       </c>
       <c r="F43" t="n">
-        <v>271.1217750869863</v>
+        <v>271.1217750869861</v>
       </c>
       <c r="G43" t="n">
         <v>185.862202804116</v>
@@ -7567,16 +7567,16 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J43" t="n">
-        <v>136.4521322328772</v>
+        <v>136.4521322328773</v>
       </c>
       <c r="K43" t="n">
-        <v>317.5715902003349</v>
+        <v>317.571590200335</v>
       </c>
       <c r="L43" t="n">
-        <v>582.0199464984427</v>
+        <v>582.0199464984428</v>
       </c>
       <c r="M43" t="n">
-        <v>866.7914412281814</v>
+        <v>866.7914412281815</v>
       </c>
       <c r="N43" t="n">
         <v>1152.169030365656</v>
@@ -7588,13 +7588,13 @@
         <v>1611.434385151338</v>
       </c>
       <c r="Q43" t="n">
-        <v>1695.379761743825</v>
+        <v>1695.379761743826</v>
       </c>
       <c r="R43" t="n">
         <v>1647.619298506316</v>
       </c>
       <c r="S43" t="n">
-        <v>1523.290967447313</v>
+        <v>1523.290967447314</v>
       </c>
       <c r="T43" t="n">
         <v>1380.962161991698</v>
@@ -7603,16 +7603,16 @@
         <v>1175.170801832601</v>
       </c>
       <c r="V43" t="n">
-        <v>1003.847911248099</v>
+        <v>1003.8479112481</v>
       </c>
       <c r="W43" t="n">
-        <v>931.8770500296243</v>
+        <v>797.792338832524</v>
       </c>
       <c r="X43" t="n">
-        <v>787.249096752992</v>
+        <v>653.1643855558917</v>
       </c>
       <c r="Y43" t="n">
-        <v>649.8181152308471</v>
+        <v>649.8181152308468</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1870.326146065225</v>
+        <v>1870.326146065226</v>
       </c>
       <c r="C44" t="n">
         <v>1584.725226746199</v>
@@ -7634,10 +7634,10 @@
         <v>1007.394470783974</v>
       </c>
       <c r="F44" t="n">
-        <v>679.7701636157515</v>
+        <v>679.7701636157517</v>
       </c>
       <c r="G44" t="n">
-        <v>346.0120445671059</v>
+        <v>346.0120445671063</v>
       </c>
       <c r="H44" t="n">
         <v>110.8234736002379</v>
@@ -7646,7 +7646,7 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J44" t="n">
-        <v>259.2443315490727</v>
+        <v>259.2443315490726</v>
       </c>
       <c r="K44" t="n">
         <v>658.7300432849238</v>
@@ -7664,7 +7664,7 @@
         <v>2996.436376295533</v>
       </c>
       <c r="P44" t="n">
-        <v>3421.250529528935</v>
+        <v>3421.250529528934</v>
       </c>
       <c r="Q44" t="n">
         <v>3663.046507025602</v>
@@ -7682,16 +7682,16 @@
         <v>3287.554630872999</v>
       </c>
       <c r="V44" t="n">
-        <v>3039.853341150812</v>
+        <v>3039.853341150813</v>
       </c>
       <c r="W44" t="n">
-        <v>2770.446283502083</v>
+        <v>2770.446283502084</v>
       </c>
       <c r="X44" t="n">
-        <v>2480.342122862388</v>
+        <v>2480.342122862389</v>
       </c>
       <c r="Y44" t="n">
-        <v>2173.564388507962</v>
+        <v>2173.564388507963</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>73.26093014051204</v>
       </c>
       <c r="J45" t="n">
-        <v>73.26093014051204</v>
+        <v>190.3379902225955</v>
       </c>
       <c r="K45" t="n">
-        <v>138.1645320529169</v>
+        <v>517.0621767774531</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8899174316821</v>
+        <v>1017.787562156218</v>
       </c>
       <c r="M45" t="n">
-        <v>1275.192046118373</v>
+        <v>1193.041677730409</v>
       </c>
       <c r="N45" t="n">
-        <v>1944.042212162781</v>
+        <v>1463.027428319695</v>
       </c>
       <c r="O45" t="n">
-        <v>2489.493765355955</v>
+        <v>2008.478981512869</v>
       </c>
       <c r="P45" t="n">
-        <v>2637.225387989852</v>
+        <v>2429.248873131361</v>
       </c>
       <c r="Q45" t="n">
         <v>2657.824633197486</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>466.2716757391223</v>
+        <v>424.37579691114</v>
       </c>
       <c r="C46" t="n">
-        <v>380.6970904326004</v>
+        <v>424.37579691114</v>
       </c>
       <c r="D46" t="n">
-        <v>313.9420486416496</v>
+        <v>357.6207551201893</v>
       </c>
       <c r="E46" t="n">
-        <v>249.3905526806415</v>
+        <v>293.0692591591812</v>
       </c>
       <c r="F46" t="n">
-        <v>185.8622028041161</v>
+        <v>229.5409092826558</v>
       </c>
       <c r="G46" t="n">
-        <v>185.8622028041161</v>
+        <v>144.2813369997855</v>
       </c>
       <c r="H46" t="n">
-        <v>114.8417959448427</v>
+        <v>73.26093014051204</v>
       </c>
       <c r="I46" t="n">
         <v>73.26093014051204</v>
@@ -7807,13 +7807,13 @@
         <v>136.4521322328772</v>
       </c>
       <c r="K46" t="n">
-        <v>317.5715902003351</v>
+        <v>317.5715902003349</v>
       </c>
       <c r="L46" t="n">
-        <v>582.0199464984428</v>
+        <v>582.0199464984426</v>
       </c>
       <c r="M46" t="n">
-        <v>866.7914412281814</v>
+        <v>866.7914412281812</v>
       </c>
       <c r="N46" t="n">
         <v>1152.169030365656</v>
@@ -7834,22 +7834,22 @@
         <v>1523.290967447313</v>
       </c>
       <c r="T46" t="n">
-        <v>1380.962161991698</v>
+        <v>1387.891422077947</v>
       </c>
       <c r="U46" t="n">
-        <v>1175.170801832601</v>
+        <v>1182.10006191885</v>
       </c>
       <c r="V46" t="n">
-        <v>1003.847911248099</v>
+        <v>1010.777171334348</v>
       </c>
       <c r="W46" t="n">
-        <v>846.6174777467545</v>
+        <v>804.7215989187721</v>
       </c>
       <c r="X46" t="n">
-        <v>701.9895244701222</v>
+        <v>660.0936456421397</v>
       </c>
       <c r="Y46" t="n">
-        <v>564.558542947977</v>
+        <v>522.6626641199947</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>197.6503338623806</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>7.831378691839674</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>95.04411400588768</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.6615946882936</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.831378691839674</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>387.3311745868623</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>193.671967301501</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>4.606280925715311</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>300.0470755923823</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>76.44902539898587</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>193.6719673015016</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>76.44902539898587</v>
+        <v>4.606280925715225</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>76.44902539898584</v>
       </c>
       <c r="N30" t="n">
-        <v>76.44902539898587</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720749</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>76.44902539898513</v>
+        <v>76.44902539898587</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720749</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504495</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>76.44902539898584</v>
       </c>
       <c r="N39" t="n">
-        <v>76.44902539898484</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119851</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>76.44902539898584</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>76.44902539898587</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599054</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>7.831378691839689</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>76.44902539898587</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>42.66653734236607</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,7 +23264,7 @@
         <v>331.4471380745252</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>211.4388362783643</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>292.1287633562131</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>265.8052700544625</v>
+        <v>346.4951971323113</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.5960766357796</v>
       </c>
       <c r="C13" t="n">
-        <v>144.0109175524701</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>125.3795694720547</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>123.1980591004115</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>82.88385576821037</v>
       </c>
       <c r="G13" t="n">
-        <v>143.6990546590549</v>
+        <v>143.699054659055</v>
       </c>
       <c r="H13" t="n">
-        <v>129.602280889694</v>
+        <v>129.6022808896941</v>
       </c>
       <c r="I13" t="n">
         <v>100.4571352453007</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>106.5749367041477</v>
+        <v>106.5749367041478</v>
       </c>
       <c r="S13" t="n">
-        <v>182.3771258474262</v>
+        <v>182.3771258474263</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>200.1975955000725</v>
       </c>
       <c r="U13" t="n">
-        <v>263.0255246565197</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>228.9017397776702</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>52.31697448986753</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.348749805937</v>
+        <v>195.3487498059371</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>359.4979381173229</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>342.0369882248498</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>358.694466526104</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>383.6401421955536</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.56756663940011</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>96.47899612414194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>187.8462451430289</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.5960766357796</v>
+        <v>156.5960766357795</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>144.01091755247</v>
       </c>
       <c r="D16" t="n">
-        <v>125.3795694720546</v>
+        <v>1.424578531346128</v>
       </c>
       <c r="E16" t="n">
-        <v>123.1980591004115</v>
+        <v>123.1980591004114</v>
       </c>
       <c r="F16" t="n">
-        <v>62.78722977275732</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>143.699054659055</v>
+        <v>143.6990546590549</v>
       </c>
       <c r="H16" t="n">
-        <v>129.6022808896941</v>
+        <v>129.602280889694</v>
       </c>
       <c r="I16" t="n">
-        <v>100.4571352453007</v>
+        <v>100.4571352453006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>106.5749367041478</v>
+        <v>106.5749367041477</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>182.3771258474262</v>
       </c>
       <c r="T16" t="n">
-        <v>200.1975955000724</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>263.0255246565196</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>202.4737518428794</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.3487498059371</v>
+        <v>195.348749805937</v>
       </c>
     </row>
     <row r="17">
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>132.7438640851299</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>132.7438640851307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>48.0250246316745</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>84.71883945345671</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>62.89306637776008</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>69.85079770736984</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>66.08749137304123</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>15.15080268931551</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>70.31020279068069</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.28285860513439</v>
+        <v>47.2828586051344</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>19.37351410695517</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>66.08749137304123</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>66.65637271208944</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.0850477484129</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.658816336718729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>97.30399853676623</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>132.7438640851299</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>35.43986554836565</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>69.85079770737089</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.89306637776012</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>132.7438640851304</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>132.7438640851303</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>132.7438640851292</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>84.71883945345671</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.40697656004157</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.16505714628731</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>6.85996748538637</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>48.33688752508921</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888017.7672241845</v>
+        <v>888017.7672241844</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888017.7672241842</v>
+        <v>888017.7672241846</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
@@ -26320,22 +26320,22 @@
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
+        <v>392224.515134642</v>
+      </c>
+      <c r="F2" t="n">
         <v>392224.5151346429</v>
-      </c>
-      <c r="F2" t="n">
-        <v>392224.5151346425</v>
       </c>
       <c r="G2" t="n">
         <v>449820.7544194317</v>
       </c>
       <c r="H2" t="n">
-        <v>449820.754419432</v>
+        <v>449820.7544194318</v>
       </c>
       <c r="I2" t="n">
+        <v>449820.7544194323</v>
+      </c>
+      <c r="J2" t="n">
         <v>449820.7544194317</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449820.7544194318</v>
       </c>
       <c r="K2" t="n">
         <v>449820.7544194318</v>
@@ -26344,16 +26344,16 @@
         <v>449820.7544194317</v>
       </c>
       <c r="M2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="O2" t="n">
-        <v>449820.7544194321</v>
+        <v>449820.7544194318</v>
       </c>
       <c r="P2" t="n">
-        <v>449820.7544194317</v>
+        <v>449820.754419432</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690535.6545539239</v>
+        <v>690535.6545539238</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47433.66247921073</v>
+        <v>47433.66247921067</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81648.6654360324</v>
+        <v>81648.66543603239</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>47433.66247921073</v>
+        <v>47433.66247921072</v>
       </c>
       <c r="M3" t="n">
-        <v>172604.0781975434</v>
+        <v>172604.0781975433</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14134.38022811675</v>
+        <v>14134.38022811674</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>56460.5670571353</v>
+        <v>56460.56705713522</v>
       </c>
       <c r="F4" t="n">
-        <v>56460.56705713523</v>
+        <v>56460.56705713534</v>
       </c>
       <c r="G4" t="n">
         <v>116377.9230326812</v>
@@ -26436,10 +26436,10 @@
         <v>116377.9230326812</v>
       </c>
       <c r="I4" t="n">
-        <v>116377.9230326811</v>
+        <v>116377.9230326812</v>
       </c>
       <c r="J4" t="n">
-        <v>116377.9230326811</v>
+        <v>116377.9230326812</v>
       </c>
       <c r="K4" t="n">
         <v>116377.9230326812</v>
@@ -26448,10 +26448,10 @@
         <v>116377.9230326812</v>
       </c>
       <c r="M4" t="n">
-        <v>118210.0489111947</v>
+        <v>118210.0489111948</v>
       </c>
       <c r="N4" t="n">
-        <v>118210.0489111947</v>
+        <v>118210.0489111948</v>
       </c>
       <c r="O4" t="n">
         <v>116377.9230326812</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9926.89871132945</v>
+        <v>9926.898711329392</v>
       </c>
       <c r="C6" t="n">
-        <v>90696.33024287707</v>
+        <v>90696.33024287713</v>
       </c>
       <c r="D6" t="n">
-        <v>90696.33024287707</v>
+        <v>90696.33024287713</v>
       </c>
       <c r="E6" t="n">
-        <v>-425169.7682819421</v>
+        <v>-425439.534001446</v>
       </c>
       <c r="F6" t="n">
-        <v>265365.8862719815</v>
+        <v>265096.1205524785</v>
       </c>
       <c r="G6" t="n">
-        <v>210626.481388308</v>
+        <v>210618.516756463</v>
       </c>
       <c r="H6" t="n">
-        <v>258060.143867519</v>
+        <v>258052.1792356738</v>
       </c>
       <c r="I6" t="n">
-        <v>258060.1438675189</v>
+        <v>258052.1792356742</v>
       </c>
       <c r="J6" t="n">
-        <v>176411.4784314865</v>
+        <v>176403.5137996413</v>
       </c>
       <c r="K6" t="n">
-        <v>258060.1438675189</v>
+        <v>258052.1792356738</v>
       </c>
       <c r="L6" t="n">
-        <v>210626.4813883081</v>
+        <v>210618.516756463</v>
       </c>
       <c r="M6" t="n">
-        <v>84908.0686364109</v>
+        <v>84908.06863641093</v>
       </c>
       <c r="N6" t="n">
         <v>257512.1468339543</v>
       </c>
       <c r="O6" t="n">
-        <v>243925.7636394024</v>
+        <v>243917.799007557</v>
       </c>
       <c r="P6" t="n">
-        <v>258060.1438675188</v>
+        <v>258052.179235674</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="F2" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="G2" t="n">
+        <v>82.52798164517115</v>
+      </c>
+      <c r="H2" t="n">
         <v>82.52798164517112</v>
-      </c>
-      <c r="H2" t="n">
-        <v>82.52798164517117</v>
       </c>
       <c r="I2" t="n">
         <v>82.52798164517112</v>
       </c>
       <c r="J2" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="K2" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="L2" t="n">
         <v>82.52798164517112</v>
       </c>
       <c r="M2" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="N2" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="O2" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="P2" t="n">
         <v>82.52798164517112</v>
@@ -26768,10 +26768,10 @@
         <v>585.6117304364542</v>
       </c>
       <c r="M3" t="n">
-        <v>585.6117304364543</v>
+        <v>585.6117304364542</v>
       </c>
       <c r="N3" t="n">
-        <v>585.6117304364544</v>
+        <v>585.6117304364542</v>
       </c>
       <c r="O3" t="n">
         <v>585.6117304364542</v>
@@ -26820,7 +26820,7 @@
         <v>915.7616267564006</v>
       </c>
       <c r="M4" t="n">
-        <v>915.7616267564007</v>
+        <v>915.7616267564006</v>
       </c>
       <c r="N4" t="n">
         <v>915.7616267564006</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>59.29207809901342</v>
+        <v>59.29207809901334</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.23590354615773</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.29207809901342</v>
+        <v>59.29207809901339</v>
       </c>
       <c r="M2" t="n">
-        <v>5.567928261011787</v>
+        <v>5.567928261011801</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>17.66797528514594</v>
+        <v>17.66797528514592</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.7473378787416</v>
+        <v>674.7473378787415</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>59.29207809901342</v>
+        <v>59.29207809901334</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.23590354615773</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>192.3884445891957</v>
       </c>
       <c r="C2" t="n">
-        <v>180.239532997313</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.54482621951806</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>77.64614584409037</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27594,7 +27594,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.9656575144215</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>344.2880590747468</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>120.0005637360302</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,13 +27746,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>15.0124448145564</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>181.9207275776204</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,16 +27895,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>168.7825851407995</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>10.33136403017744</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.02879037640488</v>
+        <v>60.50207587874957</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28059,7 +28059,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="C11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="D11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="E11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="F11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="G11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="H11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="I11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>1.98597075711379</v>
       </c>
       <c r="S11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="T11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="U11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="V11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="W11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="X11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="Y11" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="C13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="D13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="E13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="F13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="G13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="H13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="I13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="J13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="K13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="L13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="M13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="N13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="O13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="P13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="R13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="S13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="T13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="U13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="V13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="W13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="X13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.23590354615777</v>
+        <v>23.2359035461577</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="C14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="D14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="E14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="F14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="G14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="H14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="I14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>1.98597075711379</v>
       </c>
       <c r="S14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="T14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="U14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="V14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="W14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="X14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="C16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="D16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="E16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="F16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="G16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="H16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="I16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="J16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="K16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="L16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="M16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="N16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="O16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="P16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="R16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="S16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="T16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="U16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="V16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="W16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="X16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
       <c r="Y16" t="n">
-        <v>23.23590354615771</v>
+        <v>23.23590354615781</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="C17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="D17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="E17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="F17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="G17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="H17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="I17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>1.985970757113819</v>
       </c>
       <c r="S17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="T17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="U17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="V17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="W17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="X17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="C19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="D19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="E19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="F19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="G19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="H19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="I19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="J19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="K19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="L19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="M19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="N19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="O19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="P19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="R19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="S19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="T19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="U19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="V19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="W19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="X19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517115</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="C20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="D20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="E20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="F20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="G20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="H20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="I20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>1.985970757113819</v>
       </c>
       <c r="S20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="T20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="U20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="V20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="W20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="X20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="C22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="D22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="E22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="F22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="G22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="H22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="I22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="J22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="K22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="L22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="M22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="N22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="O22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="P22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="R22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="S22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="T22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="U22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="V22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="W22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="X22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.52798164517117</v>
+        <v>82.52798164517112</v>
       </c>
     </row>
     <row r="23">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="C26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="D26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="E26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="F26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="G26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="H26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="I26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.985970757113819</v>
       </c>
       <c r="S26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="T26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="U26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="V26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="W26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="X26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="C28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="D28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="E28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="F28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="G28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="H28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="I28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="J28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="K28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="L28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="M28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="N28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="O28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="P28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="R28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="S28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="T28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="U28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="V28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="W28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="X28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517112</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="C29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="D29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="E29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="F29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="G29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="H29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="I29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.985970757113819</v>
+        <v>1.985970757114719</v>
       </c>
       <c r="S29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="T29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="U29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="V29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="W29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="X29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="C31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="D31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="E31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="F31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="G31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="H31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="I31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="J31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="K31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="L31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="M31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="N31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="O31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="P31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="R31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="S31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="T31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="U31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="V31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="W31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="X31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.52798164517112</v>
+        <v>82.52798164517107</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="C35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="D35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="E35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="F35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="G35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="H35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="I35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.98597075711379</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.576985991005984</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="T35" t="n">
-        <v>88.09590990618287</v>
+        <v>6.562956748119007</v>
       </c>
       <c r="U35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="V35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="W35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="X35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="Y35" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="C37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="D37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="E37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="F37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="G37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="H37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="I37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="J37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="K37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="L37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="M37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="N37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="O37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="P37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="R37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="S37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="T37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="U37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="V37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="W37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="X37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.09590990618287</v>
+        <v>88.09590990618295</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="C38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="D38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="E38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="F38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="G38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="H38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="I38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.985970757113762</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.576985991005529</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="T38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="U38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="V38" t="n">
-        <v>88.09590990618292</v>
+        <v>6.562956748118779</v>
       </c>
       <c r="W38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="X38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="C40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="D40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="E40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="F40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="G40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="H40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="I40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="J40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="K40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="L40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="M40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="N40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="O40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="P40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="R40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="S40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="T40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="U40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="V40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="W40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="X40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="Y40" t="n">
-        <v>88.09590990618292</v>
+        <v>88.09590990618295</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="C41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="D41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="E41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="F41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="G41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="H41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="I41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>1.985970757113819</v>
       </c>
       <c r="S41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="T41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="U41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="V41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="W41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="X41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="C43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="D43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="E43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="F43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="G43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="H43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="I43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="J43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="K43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="L43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="M43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="N43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="O43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="P43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="R43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="S43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="T43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="U43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="V43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="W43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="X43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.52798164517114</v>
+        <v>82.52798164517118</v>
       </c>
     </row>
     <row r="44">
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.35421801180484</v>
+        <v>2.354218011804839</v>
       </c>
       <c r="H35" t="n">
         <v>24.11013521339632</v>
       </c>
       <c r="I35" t="n">
-        <v>90.76098990010617</v>
+        <v>90.76098990010615</v>
       </c>
       <c r="J35" t="n">
         <v>199.8113109794212</v>
       </c>
       <c r="K35" t="n">
-        <v>299.4653594191201</v>
+        <v>299.46535941912</v>
       </c>
       <c r="L35" t="n">
-        <v>371.5132588978926</v>
+        <v>371.5132588978925</v>
       </c>
       <c r="M35" t="n">
         <v>413.3800834653268</v>
       </c>
       <c r="N35" t="n">
-        <v>420.0690053913674</v>
+        <v>420.0690053913673</v>
       </c>
       <c r="O35" t="n">
-        <v>396.659250036483</v>
+        <v>396.6592500364829</v>
       </c>
       <c r="P35" t="n">
         <v>338.5394928700509</v>
       </c>
       <c r="Q35" t="n">
-        <v>254.2290603222901</v>
+        <v>254.22906032229</v>
       </c>
       <c r="R35" t="n">
         <v>147.8831471840359</v>
       </c>
       <c r="S35" t="n">
-        <v>53.64674294400284</v>
+        <v>53.64674294400282</v>
       </c>
       <c r="T35" t="n">
         <v>10.30558934667569</v>
@@ -33731,7 +33731,7 @@
         <v>12.16525500397238</v>
       </c>
       <c r="I36" t="n">
-        <v>43.36841588609592</v>
+        <v>43.36841588609591</v>
       </c>
       <c r="J36" t="n">
         <v>119.006247974827</v>
@@ -33740,34 +33740,34 @@
         <v>203.400632825273</v>
       </c>
       <c r="L36" t="n">
-        <v>273.4972520307234</v>
+        <v>273.4972520307233</v>
       </c>
       <c r="M36" t="n">
-        <v>319.1583930878676</v>
+        <v>319.1583930878675</v>
       </c>
       <c r="N36" t="n">
         <v>327.6055660674651</v>
       </c>
       <c r="O36" t="n">
-        <v>299.6950900093051</v>
+        <v>299.695090009305</v>
       </c>
       <c r="P36" t="n">
-        <v>240.5317313183241</v>
+        <v>240.531731318324</v>
       </c>
       <c r="Q36" t="n">
         <v>160.7890924775714</v>
       </c>
       <c r="R36" t="n">
-        <v>78.20678920809858</v>
+        <v>78.20678920809857</v>
       </c>
       <c r="S36" t="n">
         <v>23.39684602262625</v>
       </c>
       <c r="T36" t="n">
-        <v>5.07714321010473</v>
+        <v>5.077143210104729</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08286958449572471</v>
+        <v>0.08286958449572468</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,16 +33807,16 @@
         <v>1.056021153246065</v>
       </c>
       <c r="H37" t="n">
-        <v>9.388988071587749</v>
+        <v>9.388988071587747</v>
       </c>
       <c r="I37" t="n">
-        <v>31.75743613579986</v>
+        <v>31.75743613579985</v>
       </c>
       <c r="J37" t="n">
-        <v>74.6606955344968</v>
+        <v>74.66069553449678</v>
       </c>
       <c r="K37" t="n">
-        <v>122.6904576225883</v>
+        <v>122.6904576225882</v>
       </c>
       <c r="L37" t="n">
         <v>157.0015449107832</v>
@@ -33825,7 +33825,7 @@
         <v>165.5361158674718</v>
       </c>
       <c r="N37" t="n">
-        <v>161.6000370235548</v>
+        <v>161.6000370235547</v>
       </c>
       <c r="O37" t="n">
         <v>149.2637899151802</v>
@@ -33834,19 +33834,19 @@
         <v>127.7209583889604</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.42737129590459</v>
+        <v>88.42737129590458</v>
       </c>
       <c r="R37" t="n">
-        <v>47.48255112686397</v>
+        <v>47.48255112686396</v>
       </c>
       <c r="S37" t="n">
-        <v>18.40356864338824</v>
+        <v>18.40356864338823</v>
       </c>
       <c r="T37" t="n">
-        <v>4.512090382051368</v>
+        <v>4.512090382051367</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0576011538134218</v>
+        <v>0.05760115381342178</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.35421801180484</v>
+        <v>2.354218011804839</v>
       </c>
       <c r="H38" t="n">
-        <v>24.11013521339633</v>
+        <v>24.11013521339632</v>
       </c>
       <c r="I38" t="n">
-        <v>90.76098990010618</v>
+        <v>90.76098990010615</v>
       </c>
       <c r="J38" t="n">
         <v>199.8113109794212</v>
       </c>
       <c r="K38" t="n">
-        <v>299.4653594191201</v>
+        <v>299.46535941912</v>
       </c>
       <c r="L38" t="n">
-        <v>371.5132588978926</v>
+        <v>371.5132588978925</v>
       </c>
       <c r="M38" t="n">
-        <v>413.3800834653269</v>
+        <v>413.3800834653268</v>
       </c>
       <c r="N38" t="n">
-        <v>420.0690053913675</v>
+        <v>420.0690053913673</v>
       </c>
       <c r="O38" t="n">
-        <v>396.6592500364831</v>
+        <v>396.6592500364829</v>
       </c>
       <c r="P38" t="n">
-        <v>338.539492870051</v>
+        <v>338.5394928700509</v>
       </c>
       <c r="Q38" t="n">
-        <v>254.2290603222901</v>
+        <v>254.22906032229</v>
       </c>
       <c r="R38" t="n">
         <v>147.8831471840359</v>
       </c>
       <c r="S38" t="n">
-        <v>53.64674294400285</v>
+        <v>53.64674294400282</v>
       </c>
       <c r="T38" t="n">
         <v>10.30558934667569</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1883374409443872</v>
+        <v>0.1883374409443871</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.259617684335015</v>
       </c>
       <c r="H39" t="n">
-        <v>12.16525500397239</v>
+        <v>12.16525500397238</v>
       </c>
       <c r="I39" t="n">
-        <v>43.36841588609592</v>
+        <v>43.36841588609591</v>
       </c>
       <c r="J39" t="n">
         <v>119.006247974827</v>
@@ -33977,34 +33977,34 @@
         <v>203.400632825273</v>
       </c>
       <c r="L39" t="n">
-        <v>273.4972520307234</v>
+        <v>273.4972520307233</v>
       </c>
       <c r="M39" t="n">
-        <v>319.1583930878676</v>
+        <v>319.1583930878675</v>
       </c>
       <c r="N39" t="n">
-        <v>327.6055660674652</v>
+        <v>327.6055660674651</v>
       </c>
       <c r="O39" t="n">
-        <v>299.6950900093051</v>
+        <v>299.695090009305</v>
       </c>
       <c r="P39" t="n">
-        <v>240.5317313183241</v>
+        <v>240.531731318324</v>
       </c>
       <c r="Q39" t="n">
         <v>160.7890924775714</v>
       </c>
       <c r="R39" t="n">
-        <v>78.20678920809861</v>
+        <v>78.20678920809857</v>
       </c>
       <c r="S39" t="n">
         <v>23.39684602262625</v>
       </c>
       <c r="T39" t="n">
-        <v>5.07714321010473</v>
+        <v>5.077143210104729</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08286958449572472</v>
+        <v>0.08286958449572468</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,16 +34044,16 @@
         <v>1.056021153246065</v>
       </c>
       <c r="H40" t="n">
-        <v>9.38898807158775</v>
+        <v>9.388988071587747</v>
       </c>
       <c r="I40" t="n">
-        <v>31.75743613579986</v>
+        <v>31.75743613579985</v>
       </c>
       <c r="J40" t="n">
-        <v>74.66069553449681</v>
+        <v>74.66069553449678</v>
       </c>
       <c r="K40" t="n">
-        <v>122.6904576225883</v>
+        <v>122.6904576225882</v>
       </c>
       <c r="L40" t="n">
         <v>157.0015449107832</v>
@@ -34062,28 +34062,28 @@
         <v>165.5361158674718</v>
       </c>
       <c r="N40" t="n">
-        <v>161.6000370235548</v>
+        <v>161.6000370235547</v>
       </c>
       <c r="O40" t="n">
-        <v>149.2637899151803</v>
+        <v>149.2637899151802</v>
       </c>
       <c r="P40" t="n">
         <v>127.7209583889604</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.42737129590462</v>
+        <v>88.42737129590458</v>
       </c>
       <c r="R40" t="n">
-        <v>47.48255112686397</v>
+        <v>47.48255112686396</v>
       </c>
       <c r="S40" t="n">
-        <v>18.40356864338824</v>
+        <v>18.40356864338823</v>
       </c>
       <c r="T40" t="n">
-        <v>4.512090382051369</v>
+        <v>4.512090382051367</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0576011538134218</v>
+        <v>0.05760115381342178</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.2596566485692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>330.0244308634926</v>
+        <v>65.55919385091403</v>
       </c>
       <c r="L12" t="n">
-        <v>134.9428722508492</v>
+        <v>229.9869862567369</v>
       </c>
       <c r="M12" t="n">
         <v>642.7294229158492</v>
       </c>
       <c r="N12" t="n">
-        <v>196.2638539841318</v>
+        <v>675.6062283276854</v>
       </c>
       <c r="O12" t="n">
         <v>550.9611648415902</v>
@@ -35507,7 +35507,7 @@
         <v>425.020092543931</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.4689130798435</v>
+        <v>20.80731839154987</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.537418963981793</v>
+        <v>4.537418963981722</v>
       </c>
       <c r="K13" t="n">
-        <v>123.6568693428632</v>
+        <v>123.6568693428631</v>
       </c>
       <c r="L13" t="n">
-        <v>207.8274737172571</v>
+        <v>207.827473717257</v>
       </c>
       <c r="M13" t="n">
         <v>228.3558963754701</v>
       </c>
       <c r="N13" t="n">
-        <v>228.9681129489411</v>
+        <v>228.968112948941</v>
       </c>
       <c r="O13" t="n">
-        <v>197.0848213753777</v>
+        <v>197.0848213753776</v>
       </c>
       <c r="P13" t="n">
         <v>148.2354212000116</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.50123159036798</v>
+        <v>25.5012315903679</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>118.2596566485692</v>
       </c>
       <c r="K15" t="n">
         <v>65.55919385091403</v>
@@ -35735,13 +35735,13 @@
         <v>642.7294229158492</v>
       </c>
       <c r="N15" t="n">
-        <v>583.5950285709941</v>
+        <v>196.2638539841318</v>
       </c>
       <c r="O15" t="n">
-        <v>157.0988455648607</v>
+        <v>550.9611648415902</v>
       </c>
       <c r="P15" t="n">
-        <v>425.020092543931</v>
+        <v>300.2292912054949</v>
       </c>
       <c r="Q15" t="n">
         <v>230.884606127399</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.537418963981736</v>
+        <v>4.537418963981835</v>
       </c>
       <c r="K16" t="n">
-        <v>123.6568693428631</v>
+        <v>123.6568693428632</v>
       </c>
       <c r="L16" t="n">
-        <v>207.827473717257</v>
+        <v>207.8274737172571</v>
       </c>
       <c r="M16" t="n">
-        <v>228.3558963754701</v>
+        <v>228.3558963754702</v>
       </c>
       <c r="N16" t="n">
-        <v>228.9681129489411</v>
+        <v>228.9681129489412</v>
       </c>
       <c r="O16" t="n">
-        <v>197.0848213753776</v>
+        <v>197.0848213753777</v>
       </c>
       <c r="P16" t="n">
-        <v>148.2354212000116</v>
+        <v>148.2354212000117</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.50123159036792</v>
+        <v>25.50123159036802</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>330.0244308634926</v>
       </c>
       <c r="L18" t="n">
-        <v>505.7832175543083</v>
+        <v>134.9428722508491</v>
       </c>
       <c r="M18" t="n">
         <v>642.729422915849</v>
@@ -35975,10 +35975,10 @@
         <v>196.2638539841318</v>
       </c>
       <c r="O18" t="n">
-        <v>161.7051264905759</v>
+        <v>550.9611648415901</v>
       </c>
       <c r="P18" t="n">
-        <v>425.0200925439309</v>
+        <v>406.6043994963761</v>
       </c>
       <c r="Q18" t="n">
         <v>230.8846061273989</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.82949706299513</v>
+        <v>63.82949706299516</v>
       </c>
       <c r="K19" t="n">
         <v>182.9489474418765</v>
       </c>
       <c r="L19" t="n">
-        <v>267.1195518162704</v>
+        <v>267.1195518162705</v>
       </c>
       <c r="M19" t="n">
         <v>287.6479744744835</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2601910479544</v>
+        <v>288.2601910479545</v>
       </c>
       <c r="O19" t="n">
-        <v>256.376899474391</v>
+        <v>256.3768994743911</v>
       </c>
       <c r="P19" t="n">
         <v>207.527499299025</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.79330968938132</v>
+        <v>84.79330968938135</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>187.8620216248086</v>
       </c>
       <c r="K20" t="n">
-        <v>403.5209209453054</v>
+        <v>403.5209209453042</v>
       </c>
       <c r="L20" t="n">
         <v>553.4080584783557</v>
@@ -36200,22 +36200,22 @@
         <v>118.2596566485691</v>
       </c>
       <c r="K21" t="n">
-        <v>330.0244308634926</v>
+        <v>65.559193850914</v>
       </c>
       <c r="L21" t="n">
         <v>505.7832175543083</v>
       </c>
       <c r="M21" t="n">
-        <v>177.0243591658491</v>
+        <v>642.729422915849</v>
       </c>
       <c r="N21" t="n">
-        <v>272.7128793831176</v>
+        <v>196.2638539841318</v>
       </c>
       <c r="O21" t="n">
         <v>550.9611648415901</v>
       </c>
       <c r="P21" t="n">
-        <v>425.0200925439309</v>
+        <v>300.2292912054953</v>
       </c>
       <c r="Q21" t="n">
         <v>230.8846061273989</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.82949706299517</v>
+        <v>63.82949706299513</v>
       </c>
       <c r="K22" t="n">
-        <v>182.9489474418766</v>
+        <v>182.9489474418765</v>
       </c>
       <c r="L22" t="n">
-        <v>267.1195518162705</v>
+        <v>267.1195518162704</v>
       </c>
       <c r="M22" t="n">
         <v>287.6479744744835</v>
       </c>
       <c r="N22" t="n">
-        <v>288.2601910479545</v>
+        <v>288.2601910479544</v>
       </c>
       <c r="O22" t="n">
-        <v>256.3768994743911</v>
+        <v>256.376899474391</v>
       </c>
       <c r="P22" t="n">
         <v>207.527499299025</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.79330968938136</v>
+        <v>84.79330968938132</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>505.7832175543083</v>
       </c>
       <c r="M27" t="n">
-        <v>177.0243591658491</v>
+        <v>642.729422915849</v>
       </c>
       <c r="N27" t="n">
-        <v>272.7128793831176</v>
+        <v>200.870134909847</v>
       </c>
       <c r="O27" t="n">
-        <v>550.9611648415901</v>
+        <v>157.0988455648605</v>
       </c>
       <c r="P27" t="n">
         <v>425.0200925439309</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.82949706299509</v>
+        <v>63.82949706299513</v>
       </c>
       <c r="K28" t="n">
-        <v>182.9489474418764</v>
+        <v>182.9489474418765</v>
       </c>
       <c r="L28" t="n">
         <v>267.1195518162704</v>
       </c>
       <c r="M28" t="n">
-        <v>287.6479744744834</v>
+        <v>287.6479744744835</v>
       </c>
       <c r="N28" t="n">
         <v>288.2601910479544</v>
       </c>
       <c r="O28" t="n">
-        <v>256.3768994743909</v>
+        <v>256.376899474391</v>
       </c>
       <c r="P28" t="n">
         <v>207.527499299025</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.79330968938127</v>
+        <v>84.79330968938132</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>505.7832175543083</v>
       </c>
       <c r="M30" t="n">
-        <v>177.0243591658491</v>
+        <v>253.473384564835</v>
       </c>
       <c r="N30" t="n">
-        <v>272.7128793831176</v>
+        <v>196.2638539841318</v>
       </c>
       <c r="O30" t="n">
         <v>550.9611648415901</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.82949706299513</v>
+        <v>63.82949706299507</v>
       </c>
       <c r="K31" t="n">
-        <v>182.9489474418765</v>
+        <v>182.9489474418764</v>
       </c>
       <c r="L31" t="n">
         <v>267.1195518162704</v>
       </c>
       <c r="M31" t="n">
-        <v>287.6479744744835</v>
+        <v>287.6479744744834</v>
       </c>
       <c r="N31" t="n">
         <v>288.2601910479544</v>
       </c>
       <c r="O31" t="n">
-        <v>256.376899474391</v>
+        <v>256.3768994743909</v>
       </c>
       <c r="P31" t="n">
-        <v>207.527499299025</v>
+        <v>207.5274992990249</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.79330968938132</v>
+        <v>84.79330968938126</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>187.8620216248087</v>
+        <v>187.8620216248098</v>
       </c>
       <c r="K35" t="n">
-        <v>403.5209209453043</v>
+        <v>403.5209209453042</v>
       </c>
       <c r="L35" t="n">
-        <v>553.4080584783558</v>
+        <v>553.4080584783557</v>
       </c>
       <c r="M35" t="n">
-        <v>632.5473837308866</v>
+        <v>632.5473837308865</v>
       </c>
       <c r="N35" t="n">
-        <v>628.0028662067607</v>
+        <v>628.0028662067605</v>
       </c>
       <c r="O35" t="n">
-        <v>547.3612198775417</v>
+        <v>547.3612198775415</v>
       </c>
       <c r="P35" t="n">
         <v>429.105205286264</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>118.2596566485692</v>
+        <v>118.2596566485691</v>
       </c>
       <c r="K36" t="n">
         <v>330.0244308634926</v>
       </c>
       <c r="L36" t="n">
-        <v>505.7832175543084</v>
+        <v>505.7832175543083</v>
       </c>
       <c r="M36" t="n">
-        <v>177.0243591658493</v>
+        <v>177.0243591658491</v>
       </c>
       <c r="N36" t="n">
-        <v>272.712879383117</v>
+        <v>272.7128793831176</v>
       </c>
       <c r="O36" t="n">
-        <v>550.9611648415902</v>
+        <v>550.9611648415901</v>
       </c>
       <c r="P36" t="n">
-        <v>425.020092543931</v>
+        <v>425.0200925439309</v>
       </c>
       <c r="Q36" t="n">
-        <v>230.884606127399</v>
+        <v>230.8846061273989</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.39742532400689</v>
+        <v>69.39742532400696</v>
       </c>
       <c r="K37" t="n">
         <v>188.5168757028883</v>
       </c>
       <c r="L37" t="n">
-        <v>272.6874800772822</v>
+        <v>272.6874800772823</v>
       </c>
       <c r="M37" t="n">
-        <v>293.2159027354952</v>
+        <v>293.2159027354953</v>
       </c>
       <c r="N37" t="n">
-        <v>293.8281193089662</v>
+        <v>293.8281193089663</v>
       </c>
       <c r="O37" t="n">
         <v>261.9448277354028</v>
       </c>
       <c r="P37" t="n">
-        <v>213.0954275600367</v>
+        <v>213.0954275600368</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.36123795039308</v>
+        <v>90.36123795039315</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>187.8620216248087</v>
+        <v>187.8620216248098</v>
       </c>
       <c r="K38" t="n">
-        <v>403.5209209453043</v>
+        <v>403.5209209453042</v>
       </c>
       <c r="L38" t="n">
-        <v>553.4080584783549</v>
+        <v>553.4080584783557</v>
       </c>
       <c r="M38" t="n">
-        <v>632.5473837308867</v>
+        <v>632.5473837308865</v>
       </c>
       <c r="N38" t="n">
-        <v>628.0028662067607</v>
+        <v>628.0028662067605</v>
       </c>
       <c r="O38" t="n">
-        <v>547.3612198775417</v>
+        <v>547.3612198775415</v>
       </c>
       <c r="P38" t="n">
-        <v>429.1052052862642</v>
+        <v>429.105205286264</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.2383611077453</v>
+        <v>244.2383611077452</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.2596566485692</v>
+        <v>118.2596566485691</v>
       </c>
       <c r="K39" t="n">
         <v>330.0244308634926</v>
       </c>
       <c r="L39" t="n">
-        <v>505.7832175543084</v>
+        <v>505.7832175543083</v>
       </c>
       <c r="M39" t="n">
-        <v>177.0243591658493</v>
+        <v>253.473384564835</v>
       </c>
       <c r="N39" t="n">
-        <v>272.7128793831167</v>
+        <v>196.2638539841318</v>
       </c>
       <c r="O39" t="n">
-        <v>550.9611648415903</v>
+        <v>550.9611648415901</v>
       </c>
       <c r="P39" t="n">
-        <v>425.020092543931</v>
+        <v>425.0200925439309</v>
       </c>
       <c r="Q39" t="n">
-        <v>230.884606127399</v>
+        <v>230.8846061273989</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>293.8281193089663</v>
       </c>
       <c r="O40" t="n">
-        <v>261.9448277354029</v>
+        <v>261.9448277354028</v>
       </c>
       <c r="P40" t="n">
-        <v>213.0954275600369</v>
+        <v>213.0954275600368</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.36123795039316</v>
+        <v>90.36123795039315</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>632.5473837308865</v>
       </c>
       <c r="N41" t="n">
-        <v>628.0028662067615</v>
+        <v>628.0028662067605</v>
       </c>
       <c r="O41" t="n">
         <v>547.3612198775415</v>
@@ -37865,10 +37865,10 @@
         <v>505.7832175543083</v>
       </c>
       <c r="M42" t="n">
-        <v>253.473384564835</v>
+        <v>177.0243591658491</v>
       </c>
       <c r="N42" t="n">
-        <v>196.2638539841318</v>
+        <v>272.7128793831176</v>
       </c>
       <c r="O42" t="n">
         <v>550.9611648415901</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.82949706299515</v>
+        <v>63.82949706299519</v>
       </c>
       <c r="K43" t="n">
-        <v>182.9489474418765</v>
+        <v>182.9489474418766</v>
       </c>
       <c r="L43" t="n">
         <v>267.1195518162705</v>
@@ -37947,7 +37947,7 @@
         <v>287.6479744744835</v>
       </c>
       <c r="N43" t="n">
-        <v>288.2601910479544</v>
+        <v>288.2601910479545</v>
       </c>
       <c r="O43" t="n">
         <v>256.3768994743911</v>
@@ -37956,7 +37956,7 @@
         <v>207.527499299025</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.79330968938133</v>
+        <v>84.79330968938137</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>429.105205286264</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.2383611077452</v>
+        <v>244.2383611077459</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>118.2596566485691</v>
       </c>
       <c r="K45" t="n">
-        <v>65.559193850914</v>
+        <v>330.0244308634926</v>
       </c>
       <c r="L45" t="n">
         <v>505.7832175543083</v>
       </c>
       <c r="M45" t="n">
-        <v>642.729422915849</v>
+        <v>177.0243591658491</v>
       </c>
       <c r="N45" t="n">
-        <v>675.6062283276854</v>
+        <v>272.7128793831176</v>
       </c>
       <c r="O45" t="n">
         <v>550.9611648415901</v>
       </c>
       <c r="P45" t="n">
-        <v>149.2238612463598</v>
+        <v>425.0200925439309</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.80731839154984</v>
+        <v>230.8846061273989</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
